--- a/input/汇总_点赞链接.xlsx
+++ b/input/汇总_点赞链接.xlsx
@@ -15,7 +15,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -26,13 +26,6 @@
       <sz val="10"/>
       <color/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -56,13 +49,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
-      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,1676 +344,2356 @@
     </row>
     <row r="2" ht="25.5" customHeight="1">
       <c r="A2">
-        <v>765</v>
-      </c>
-      <c r="B2" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG", "https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG")</f>
-        <v>https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG</v>
+        <v>1453</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76tYl0C?tk=BlwGUZj9T7P MF287 「我在闲鱼发布了【【包邮送滤芯】小米净化器1代/2代】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3">
-        <v>766</v>
-      </c>
-      <c r="B3" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv", "https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv")</f>
-        <v>https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv</v>
+        <v>1454</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hmAJPm?tk=eTL3UZjoqkG MF168 「我在闲鱼发布了【【全新现货】大疆级无人机 4K高清航拍 新人秒上手】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4">
-        <v>767</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG", "https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG")</f>
-        <v>https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG</v>
+        <v>1455</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76tSil9?tk=iYQuUZjIE6I CZ028 「我在闲鱼发布了【现货包邮泡泡玛特dimoo新生日记系列搪胶毛绒挂件全新盲盒P】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5">
-        <v>768</v>
-      </c>
-      <c r="B5" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO", "https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO")</f>
-        <v>https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO</v>
+        <v>1456</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7S9fmah?tk=V4uuUZQ0nZ6 CZ007 「我在闲鱼发布了【【99新正品】友望UWANT除螨仪M9Max大吸力家用床上吸】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6">
-        <v>769</v>
-      </c>
-      <c r="B6" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo", "https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo")</f>
-        <v>https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo</v>
+        <v>1457</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7UqIf0i?tk=N7l2fyyeqBg CZ007 「我在闲鱼发布了【PC电脑手柄XBOX360手柄USB游戏震动通用steam笔】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7">
-        <v>770</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd", "https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd")</f>
-        <v>https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd</v>
+        <v>1458</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7h4v898?tk=hzE8UZQ71VJ MF278 「我在闲鱼发布了【【手作珍品·石磨陈艾条清仓释出】】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8">
-        <v>771</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D", "https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D")</f>
-        <v>https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D</v>
+        <v>1459</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hNx1kD?tk=Lx4FUZQP56Q CZ001 「我在闲鱼发布了【【正品章丘铁锅】镜面锅无涂层不粘锅老式纯铁锅已开锅不粘锅不生】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9">
-        <v>772</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn", "https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn")</f>
-        <v>https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn</v>
+        <v>1460</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76GXDu6?tk=fjTzUZQkRc9 CZ225 「我在闲鱼发布了【【清仓处理】全新双向遛娃神器 一键折叠轻便四轮婴儿手推车可双】」
+点击链接直接打开
+</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10">
-        <v>773</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon", "https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon")</f>
-        <v>https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon</v>
+        <v>1461</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>9【闲鱼】https://m.tb.cn/h.7hf1tlZ?tk=MVDLUZQnKzL CZ356 「我在闲鱼发布了【【全新捡漏】1.5L小熊养生壶家用多功能烧水花茶壶电热水壶办】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11">
-        <v>774</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe", "https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe")</f>
-        <v>https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe</v>
+        <v>1462</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76GU0ms?tk=AkklUZQpugI MF937 「我在闲鱼发布了【全新正品徕芬lf03吹风机高速吹风机高颜值大功率电机负离子护】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12">
-        <v>775</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8", "https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8")</f>
-        <v>https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8</v>
+        <v>1463</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7S9zOmv?tk=wPwYUZQIyf4 CZ356 「我在闲鱼发布了【【50个清仓｜亏本出】取暖器家用小太阳，节能台式小型暖风机，】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13">
-        <v>776</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU", "https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU")</f>
-        <v>https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU</v>
+        <v>1464</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hntbVy?tk=3G0nUZ96ip2 CZ356 「我在闲鱼发布了【【顺丰速发】HyperX飓风3电竞头戴式有线游戏耳机 全新未】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14">
-        <v>777</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo", "https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo")</f>
-        <v>https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo</v>
+        <v>1465</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hUXuOK?tk=stnRUZ9np75 HU926 「我在闲鱼发布了【【正品包邮】全新匹克筋膜环PEAK筋膜枪甩脂机抖抖瘦顶配8档】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
       <c r="A15">
-        <v>778</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX", "https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX")</f>
-        <v>https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX</v>
+        <v>1466</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hMUfur?tk=yBrTUZ9Efnx HU293 「我在闲鱼发布了【[火]KAWOO水波纹蓝牙音箱氛围灯#蓝牙音箱 #助力深度睡】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16">
-        <v>779</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq", "https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq")</f>
-        <v>https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq</v>
+        <v>1467</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7h4nACV?tk=I8kbUZkclAY tG-#22&gt;lD 「我在闲鱼发布了【3D代打+建模定制 低价0.1元/克起】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17">
-        <v>780</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ", "https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ")</f>
-        <v>https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ</v>
+        <v>1468</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki CZ057 「我在闲鱼发布了【服务贴心，有求必应】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18">
-        <v>781</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ", "https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ")</f>
-        <v>https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ</v>
+        <v>1469</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hMUfur?tk=yBrTUZ9Efnx HU293 「我在闲鱼发布了【[火]KAWOO水波纹蓝牙音箱氛围灯#蓝牙音箱 #助力深度睡】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19">
-        <v>782</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W", "https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W")</f>
-        <v>https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W</v>
+        <v>1470</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hocVV6?tk=ZyJQUZkqa0a HU293 「我在闲鱼发布了【【高性价比平替】三星Galaxy Buds3 Pro 真无线】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
       <c r="A20">
-        <v>783</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH", "https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH")</f>
-        <v>https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH</v>
+        <v>1471</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SlXmoa?tk=bq0jUZkGDo7 MF168 「我在闲鱼发布了【【官方正品】【假一赔十】35.7包邮  全新  双层加蒸笼蒸】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
       <c r="A21">
-        <v>784</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7", "https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7")</f>
-        <v>https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7</v>
+        <v>1472</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76Fhl4c?tk=FXgYUZkvi1z CZ321 「我在闲鱼发布了【【官方正品】【假一赔十】小南瓜养生杯办公室小型全自动加厚玻璃】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22">
-        <v>785</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY", "https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY")</f>
-        <v>https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY</v>
+        <v>1473</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SlVCDl?tk=7XEAUZkwCX8 CZ028 「我在闲鱼发布了【纯野生黄精九蒸九晒非遗古法制作补肾祛湿乌发】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23">
-        <v>786</v>
-      </c>
-      <c r="B23" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9", "https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9")</f>
-        <v>https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9</v>
+        <v>1474</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76FnXWF?tk=ONjvUZP1gk8 CZ356 「我在闲鱼发布了【建模接单，画三维图，3D打印定制，机械设计，工业设计，结构设】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24">
-        <v>787</v>
-      </c>
-      <c r="B24" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV", "https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV")</f>
-        <v>https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV</v>
+        <v>1475</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SlQZVf?tk=EmvBUZP1gEt HU926 「我在闲鱼发布了【【现货秒回】赛马娘 诗歌剧 曼波玩偶 二次元谷子】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25">
-        <v>788</v>
-      </c>
-      <c r="B25" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu", "https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu")</f>
-        <v>https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu</v>
+        <v>1476</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76FLiyf?tk=pjijUZP2OxT CZ009 「我在闲鱼发布了【【正品包邮】全新正品苏泊尔SF16R71小电饭煲，1.6L铝】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26">
-        <v>789</v>
-      </c>
-      <c r="B26" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS", "https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS")</f>
-        <v>https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS</v>
+        <v>1477</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76FItnu?tk=dv18UZP4mZv MF278 「我在闲鱼发布了【【正品包邮】实体不做了，急处理20个奥克斯电热烧水壶家用开水】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27">
-        <v>790</v>
-      </c>
-      <c r="B27" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F", "https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F")</f>
-        <v>https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F</v>
+        <v>1478</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SlrugJ?tk=HFjZUZPS1Hx CZ007 「我在闲鱼发布了【【全新包邮】快充磁吸三合一无线充电器桌面充电站可旋转Qi2磁】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28">
-        <v>791</v>
-      </c>
-      <c r="B28" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm", "https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm")</f>
-        <v>https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm</v>
+        <v>1479</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hoES8L?tk=kFwdUZPjqKy CA381 「我在闲鱼发布了【【全新正品包邮】星星人杯子联名陶瓷马克杯礼盒装星星人高颜值咖】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29">
-        <v>792</v>
-      </c>
-      <c r="B29" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo", "https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo")</f>
-        <v>https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo</v>
+        <v>1480</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76vbsTN?tk=0zlHUZPMXCR CZ001 「我在闲鱼发布了【【全新正品】olayks立时小礼帽迷你电饭煲1到2人一人食蒸】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
       <c r="A30">
-        <v>793</v>
-      </c>
-      <c r="B30" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O", "https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O")</f>
-        <v>https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O</v>
+        <v>1481</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hgVgBp?tk=7bC4UZPofWJ HU071 「我在闲鱼发布了【【全新正品】摩飞围炉煮茶烤火炉套装电陶炉电烤炉煮茶壶煮茶器具】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31">
-        <v>794</v>
-      </c>
-      <c r="B31" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J", "https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J")</f>
-        <v>https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J</v>
+        <v>1482</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SObtJN?tk=dbOSUZPJY0X HU287 「我在闲鱼发布了【索尼WH-1000XM6 头戴式蓝牙降噪耳机｜华强北顶配版】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32">
-        <v>795</v>
-      </c>
-      <c r="B32" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT", "https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT")</f>
-        <v>https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT</v>
+        <v>1483</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hLjEzk?tk=1uRVUZl1Q4o HU591 「我在闲鱼发布了【赫利肯火枪手鲨鱼皮冲锋衣】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
       <c r="A33">
-        <v>796</v>
-      </c>
-      <c r="B33" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X", "https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X")</f>
-        <v>https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X</v>
+        <v>1484</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.766Sb6y?tk=ZhDfUZag20V CZ356 「快来捡漏【OSAH防水 驮包 双肩包 行李包】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34">
-        <v>797</v>
-      </c>
-      <c r="B34" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9", "https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9")</f>
-        <v>https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9</v>
+        <v>1485</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SZ4Jid?tk=7CVgUZahZTq CZ321 「快来捡漏【非正品我生吃】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
       <c r="A35">
-        <v>798</v>
-      </c>
-      <c r="B35" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E", "https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E")</f>
-        <v>https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E</v>
+        <v>1486</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7667pba?tk=1BA2UZa60ED CZ193 「快来捡漏【外贸精品旅行通勤防水健身户外漂流】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36">
-        <v>799</v>
-      </c>
-      <c r="B36" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId", "https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId")</f>
-        <v>https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId</v>
+        <v>1487</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Sbp1nU?tk=dI99UZ0sXM0 MF168 「我在闲鱼发布了【【工厂直销】轻奢多层树洞猫窝宠物用品透气款一体猫抓板通用动物】」
+#小程序://闲鱼/U1Ol4xR74icJpHw
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37">
-        <v>800</v>
-      </c>
-      <c r="B37" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV", "https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV")</f>
-        <v>https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV</v>
+        <v>1488</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76E0P5Z?tk=qWfgUZlmEYP MF168 「我在闲鱼发布了【复古氛围感拉满！YearsStay时光岁月便携CD机 蓝牙音】」
+点击链接直接打开
+</t>
+        </is>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
       <c r="A38">
-        <v>801</v>
-      </c>
-      <c r="B38" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx", "https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx")</f>
-        <v>https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx</v>
+        <v>1489</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH MF168 「我在闲鱼发布了【【全新未拆】MegaHouse Look Up 五条悟咒术回】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="A39">
-        <v>802</v>
-      </c>
-      <c r="B39" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F", "https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F")</f>
-        <v>https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F</v>
+        <v>1490</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hKt7QB?tk=r2LdUZmhAN2 CZ356 「我在闲鱼发布了【煤气罐改的柴火炉柴火灶，加厚款，炉体结实耐用，火力很猛，适合】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
       <c r="A40">
-        <v>803</v>
-      </c>
-      <c r="B40" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688", "https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688")</f>
-        <v>https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688</v>
+        <v>1491</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76wxkb6?tk=i2h8UZmQ71G MF937 「我在闲鱼发布了【【全新包邮】2L养生壶万利达家用办公室大容量多功能炖煮一体煮】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="A41">
-        <v>804</v>
-      </c>
-      <c r="B41" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr", "https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr")</f>
-        <v>https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr</v>
+        <v>1492</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hgj2F6?tk=BxUnUZPFfBN CA381 「我在闲鱼发布了【匹克正品筋膜环｜9档按摩+恒温热敷 秋冬护腰神器】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="A42">
-        <v>805</v>
-      </c>
-      <c r="B42" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy", "https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy")</f>
-        <v>https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy</v>
+        <v>1493</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76DLB0X?tk=ZaeTUZN372j CZ009 「我在闲鱼发布了【【原价199清仓！】康佳吸尘器2025新款无线手持吸尘器 大】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
       <c r="A43">
-        <v>806</v>
-      </c>
-      <c r="B43" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath", "https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath")</f>
-        <v>https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath</v>
+        <v>1494</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hSXxcg?tk=obgkUZNksFt CA381 「我在闲鱼发布了【【超低出】哈曼卡顿音质重低音炮无线蓝牙音箱，便携式大音量低音】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="A44">
-        <v>807</v>
-      </c>
-      <c r="B44" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk", "https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk")</f>
-        <v>https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk</v>
+        <v>1495</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76xLVTp?tk=S4BNUZnVZeD CZ356 「我在闲鱼发布了【【央妈推荐】友望UWANT除螨仪M9Max床上好物央妈节目推】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
       <c r="A45">
-        <v>808</v>
-      </c>
-      <c r="B45" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE", "https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE")</f>
-        <v>https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE</v>
+        <v>1496</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76xoz6z?tk=G9peUZnVZGX HU071 「我在闲鱼发布了【【官仓直发】Midea美的烘干机HBGJ12A1家用小型宿舍】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="A46">
-        <v>809</v>
-      </c>
-      <c r="B46" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk", "https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk")</f>
-        <v>https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk</v>
+        <v>1497</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hSFDZJ?tk=IMcyUZnVz4D HU006 「我在闲鱼发布了【【不正包退】 追觅MOVA除螨仪D10Max家用床上大吸力超】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="A47">
-        <v>810</v>
-      </c>
-      <c r="B47" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43", "https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43")</f>
-        <v>https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43</v>
+        <v>1498</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76xJNAx?tk=YWAzUZnUt2F MF287 「我在闲鱼发布了【【小米正品】小米米家空气净化器4lite/4/4pro家用室】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
       <c r="A48">
-        <v>811</v>
-      </c>
-      <c r="B48" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki", "https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki")</f>
-        <v>https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki</v>
+        <v>1499</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SMHkTa?tk=4AHEUZnUUzG HU926 「我在闲鱼发布了【赫利肯 L7冬季轻量化棉服】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="A49">
-        <v>812</v>
-      </c>
-      <c r="B49" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN", "https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN")</f>
-        <v>https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN</v>
+        <v>1500</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7hJFvGJ?tk=ME7gUZnRBzQ CZ225 「我在闲鱼发布了【【全新正品】养生壶1.8L办公室煮茶壶家用花茶煎药加厚玻璃全】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
       <c r="A50">
-        <v>813</v>
-      </c>
-      <c r="B50" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR", "https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR")</f>
-        <v>https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR</v>
+        <v>1501</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7h8JDav?tk=B4aHUZLBBnR CZ225 「我在闲鱼发布了【【官仓有货】olayks立时电磁炉家用大功率爆炒多功能火锅炒】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="A51">
-        <v>814</v>
-      </c>
-      <c r="B51" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn", "https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn")</f>
-        <v>https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn</v>
+        <v>1502</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://h5.m.goofish.com/item?forceFlush=1&amp;id=1008331634018&amp;ut_sk=1.aGI//fAiIioDAIRy6zEzChij_12431167_1767337326774.Copy.detail.1008331634018.1063959037</t>
+        </is>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="A52">
-        <v>815</v>
-      </c>
-      <c r="B52" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m", "https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m")</f>
-        <v>https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m</v>
+        <v>1503</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.7SqXQd4?tk=cQGXUZpifJq HU006 「我在闲鱼发布了【4L加湿器全新 可加自来水 大水箱微米级雾化低噪加湿神器可加】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
       <c r="A53">
-        <v>816</v>
-      </c>
-      <c r="B53" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ", "https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ")</f>
-        <v>https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ</v>
+        <v>1504</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>【闲鱼】https://m.tb.cn/h.76ztfw0?tk=8w6nUZp8E2o CZ356 「我在闲鱼发布了【【清货】全新磨毛四件套 ins风可爱卡通款，亲肤柔软，四季可】」
+点击链接直接打开</t>
+        </is>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="A54">
-        <v>817</v>
-      </c>
-      <c r="B54" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC", "https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC")</f>
-        <v>https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC</v>
+        <v>1505</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h8r27f?tk=TabrUZLBKiS</t>
+        </is>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
       <c r="A55">
-        <v>818</v>
-      </c>
-      <c r="B55" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk", "https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk")</f>
-        <v>https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk</v>
+        <v>1506</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76zjwPt?tk=qtScUZpXXzg</t>
+        </is>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="A56">
-        <v>819</v>
-      </c>
-      <c r="B56" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6", "https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6")</f>
-        <v>https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6</v>
+        <v>1507</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hHI72b?tk=VLxeUZpSwgH</t>
+        </is>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
       <c r="A57">
-        <v>820</v>
-      </c>
-      <c r="B57" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk", "https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk")</f>
-        <v>https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk</v>
+        <v>1508</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SLuJBl?tk=2CyOUZofIn9</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
       <c r="A58">
-        <v>821</v>
-      </c>
-      <c r="B58" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2", "https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2")</f>
-        <v>https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2</v>
+        <v>1509</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sprq8b?tk=cmBQUZL27ej</t>
+        </is>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="A59">
-        <v>822</v>
-      </c>
-      <c r="B59" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs", "https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs")</f>
-        <v>https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs</v>
+        <v>1510</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hsrKO5?tk=BDZgUZL5GGq</t>
+        </is>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
       <c r="A60">
-        <v>823</v>
-      </c>
-      <c r="B60" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba", "https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba")</f>
-        <v>https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba</v>
+        <v>1511</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76BtK5K?tk=1Y6xUZLj0dG</t>
+        </is>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="A61">
-        <v>824</v>
-      </c>
-      <c r="B61" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA", "https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA")</f>
-        <v>https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA</v>
+        <v>1512</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76BGP5W?tk=5DSrUZLjPLR</t>
+        </is>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="A62">
-        <v>825</v>
-      </c>
-      <c r="B62" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf", "https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf")</f>
-        <v>https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf</v>
+        <v>1513</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hi1frZ?tk=Yz4cUZMi4py</t>
+        </is>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
       <c r="A63">
-        <v>826</v>
-      </c>
-      <c r="B63" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s", "https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s")</f>
-        <v>https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s</v>
+        <v>1514</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hrDmvh?tk=IbyjUZM86Bb</t>
+        </is>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
       <c r="A64">
-        <v>827</v>
-      </c>
-      <c r="B64" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T", "https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T")</f>
-        <v>https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T</v>
+        <v>1515</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hid09p?tk=9ZFBUZM9Vcg</t>
+        </is>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
       <c r="A65">
-        <v>828</v>
-      </c>
-      <c r="B65" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4", "https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4")</f>
-        <v>https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4</v>
+        <v>1516</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hioYq0?tk=mmjaUZMCUeA</t>
+        </is>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="A66">
-        <v>829</v>
-      </c>
-      <c r="B66" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50", "https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50")</f>
-        <v>https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50</v>
+        <v>1517</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SLMeWK?tk=luCMUZob3ZY</t>
+        </is>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
       <c r="A67">
-        <v>830</v>
-      </c>
-      <c r="B67" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX", "https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX")</f>
-        <v>https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX</v>
+        <v>1518</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hIMoe6?tk=gYeEUZodeIt</t>
+        </is>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
       <c r="A68">
-        <v>831</v>
-      </c>
-      <c r="B68" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo", "https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo")</f>
-        <v>https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo</v>
+        <v>1519</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76E1hCn?tk=rBkiUZln0ou</t>
+        </is>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="A69">
-        <v>832</v>
-      </c>
-      <c r="B69" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu", "https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu")</f>
-        <v>https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu</v>
+        <v>1520</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76ylwFG?tk=SJw2UZoecj9</t>
+        </is>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
       <c r="A70">
-        <v>833</v>
-      </c>
-      <c r="B70" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg", "https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg")</f>
-        <v>https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg</v>
+        <v>1521</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76Cf492?tk=VYbnUZnw37I</t>
+        </is>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="A71">
-        <v>834</v>
-      </c>
-      <c r="B71" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi", "https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi")</f>
-        <v>https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi</v>
+        <v>1522</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hrSfX3?tk=EtOVUZnwDX3</t>
+        </is>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="A72">
-        <v>835</v>
-      </c>
-      <c r="B72" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV", "https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV")</f>
-        <v>https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV</v>
+        <v>1523</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h7Nw9s?tk=UvyzUZny96T</t>
+        </is>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
       <c r="A73">
-        <v>836</v>
-      </c>
-      <c r="B73" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo", "https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo")</f>
-        <v>https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo</v>
+        <v>1524</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hrQoiB?tk=EIuBUZnA7ko</t>
+        </is>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
       <c r="A74">
-        <v>837</v>
-      </c>
-      <c r="B74" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9", "https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9")</f>
-        <v>https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9</v>
+        <v>1525</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76CiOLf?tk=2WEMUZMatCf</t>
+        </is>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
       <c r="A75">
-        <v>838</v>
-      </c>
-      <c r="B75" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN", "https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN")</f>
-        <v>https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN</v>
+        <v>1526</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76C9Hen?tk=jqEqUZMXta8</t>
+        </is>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="A76">
-        <v>839</v>
-      </c>
-      <c r="B76" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA", "https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA")</f>
-        <v>https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA</v>
+        <v>1527</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SoruyR?tk=rj1VUZMeZlq</t>
+        </is>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="A77">
-        <v>840</v>
-      </c>
-      <c r="B77" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3", "https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3")</f>
-        <v>https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3</v>
+        <v>1528</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76CJ1EZ?tk=8sl2UZMhQPM</t>
+        </is>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
       <c r="A78">
-        <v>841</v>
-      </c>
-      <c r="B78" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98", "https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98")</f>
-        <v>https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98</v>
+        <v>1529</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SMHkTa?tk=4AHEUZnUUzG</t>
+        </is>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="A79">
-        <v>842</v>
-      </c>
-      <c r="B79" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1", "https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1")</f>
-        <v>https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1</v>
+        <v>1530</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76xG7uX?tk=AoRQUZniavP</t>
+        </is>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
       <c r="A80">
-        <v>843</v>
-      </c>
-      <c r="B80" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2", "https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2")</f>
-        <v>https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2</v>
+        <v>1531</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hJFvGJ?tk=ME7gUZnRBzQ</t>
+        </is>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
       <c r="A81">
-        <v>844</v>
-      </c>
-      <c r="B81" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i", "https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i")</f>
-        <v>https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i</v>
+        <v>1532</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SobOTV?tk=y60lUZnNVjV</t>
+        </is>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="A82">
-        <v>845</v>
-      </c>
-      <c r="B82" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW", "https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW")</f>
-        <v>https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW</v>
+        <v>1533</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7So1BPQ?tk=MuC5UZnnyFH</t>
+        </is>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
       <c r="A83">
-        <v>846</v>
-      </c>
-      <c r="B83" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd", "https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd")</f>
-        <v>https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd</v>
+        <v>1534</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hLAqPy?tk=JhrLUZln3Dj</t>
+        </is>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="A84">
-        <v>847</v>
-      </c>
-      <c r="B84" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0", "https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0")</f>
-        <v>https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0</v>
+        <v>1535</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hrg2fF?tk=FfQjUZnuwKF</t>
+        </is>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
       <c r="A85">
-        <v>848</v>
-      </c>
-      <c r="B85" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3", "https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3")</f>
-        <v>https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3</v>
+        <v>1536</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h7lHff?tk=1WAQUZnErjj</t>
+        </is>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
       <c r="A86">
-        <v>849</v>
-      </c>
-      <c r="B86" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J", "https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J")</f>
-        <v>https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J</v>
+        <v>1537</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SN6hYJ?tk=cgnrUZOwW3T</t>
+        </is>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="A87">
-        <v>850</v>
-      </c>
-      <c r="B87" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6", "https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6")</f>
-        <v>https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6</v>
+        <v>1538</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SNhMjL?tk=MJyQUZOwxGS</t>
+        </is>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
       <c r="A88">
-        <v>851</v>
-      </c>
-      <c r="B88" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ", "https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ")</f>
-        <v>https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ</v>
+        <v>1539</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hKOhNm?tk=RWRrUZmYWLr</t>
+        </is>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
       <c r="A89">
-        <v>852</v>
-      </c>
-      <c r="B89" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0", "https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0")</f>
-        <v>https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0</v>
+        <v>1540</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h6qQrG?tk=2ywUUZmcTaa</t>
+        </is>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
       <c r="A90">
-        <v>853</v>
-      </c>
-      <c r="B90" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN", "https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN")</f>
-        <v>https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN</v>
+        <v>1541</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h6rbPr?tk=nam7UZm2Ttg</t>
+        </is>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="A91">
-        <v>854</v>
-      </c>
-      <c r="B91" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd", "https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd")</f>
-        <v>https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd</v>
+        <v>1542</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76DhY7f?tk=dLD2UZmxz7p</t>
+        </is>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="A92">
-        <v>855</v>
-      </c>
-      <c r="B92" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB", "https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB")</f>
-        <v>https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB</v>
+        <v>1543</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SnDcZH?tk=zZdxUZmoCxC</t>
+        </is>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
       <c r="A93">
-        <v>856</v>
-      </c>
-      <c r="B93" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv", "https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv")</f>
-        <v>https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv</v>
+        <v>1544</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hJgXmo?tk=k4s5UZNE1c7</t>
+        </is>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="A94">
-        <v>857</v>
-      </c>
-      <c r="B94" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr", "https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr")</f>
-        <v>https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr</v>
+        <v>1545</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hJgef7?tk=bKJlUZNvIkr</t>
+        </is>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
       <c r="A95">
-        <v>858</v>
-      </c>
-      <c r="B95" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo", "https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo")</f>
-        <v>https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo</v>
+        <v>1546</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76xl1E7?tk=7lm5UZn1Q3i</t>
+        </is>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="A96">
-        <v>859</v>
-      </c>
-      <c r="B96" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm", "https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm")</f>
-        <v>https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm</v>
+        <v>1547</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76EIGDJ?tk=eI0BUZOUbyk</t>
+        </is>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="A97">
-        <v>860</v>
-      </c>
-      <c r="B97" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV", "https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV")</f>
-        <v>https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV</v>
+        <v>1548</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76EHuG0?tk=e1FzUZOTP2c</t>
+        </is>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
       <c r="A98">
-        <v>861</v>
-      </c>
-      <c r="B98" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68", "https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68")</f>
-        <v>https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68</v>
+        <v>1549</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hpv21P?tk=gEVfUZORKGw</t>
+        </is>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="A99">
-        <v>862</v>
-      </c>
-      <c r="B99" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ", "https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ")</f>
-        <v>https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ</v>
+        <v>1550</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hpwYSP?tk=X66WUZOQTqP</t>
+        </is>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
       <c r="A100">
-        <v>863</v>
-      </c>
-      <c r="B100" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr", "https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr")</f>
-        <v>https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr</v>
+        <v>1551</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76ExwpS?tk=IZzLUZOQiR2</t>
+        </is>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="A101">
-        <v>864</v>
-      </c>
-      <c r="B101" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L", "https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L")</f>
-        <v>https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L</v>
+        <v>1552</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h63Av7?tk=bIkYUZOMIYL</t>
+        </is>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="A102">
-        <v>865</v>
-      </c>
-      <c r="B102" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy", "https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy")</f>
-        <v>https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy</v>
+        <v>1553</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h65EZt?tk=Rg2zUZOKFkV</t>
+        </is>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
       <c r="A103">
-        <v>866</v>
-      </c>
-      <c r="B103" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0", "https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0")</f>
-        <v>https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0</v>
+        <v>1554</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SNfIl2?tk=TRnPUZOtHmX</t>
+        </is>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
       <c r="A104">
-        <v>867</v>
-      </c>
-      <c r="B104" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4", "https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4")</f>
-        <v>https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4</v>
+        <v>1555</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH</t>
+        </is>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
       <c r="A105">
-        <v>868</v>
-      </c>
-      <c r="B105" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9", "https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9")</f>
-        <v>https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9</v>
+        <v>1556</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hLPmJS?tk=yJkFUZlXiFY</t>
+        </is>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="A106">
-        <v>869</v>
-      </c>
-      <c r="B106" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc", "https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc")</f>
-        <v>https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc</v>
+        <v>1557</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.75ObREt?tk=P7LtfBHy9XW</t>
+        </is>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
       <c r="A107">
-        <v>870</v>
-      </c>
-      <c r="B107" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j", "https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j")</f>
-        <v>https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j</v>
+        <v>1558</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.75E5iey?tk=AjsgfBHzSNX</t>
+        </is>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
       <c r="A108">
-        <v>871</v>
-      </c>
-      <c r="B108" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg", "https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg")</f>
-        <v>https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg</v>
+        <v>1559</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hTchC0?tk=ISD7UZllWe6</t>
+        </is>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
       <c r="A109">
-        <v>872</v>
-      </c>
-      <c r="B109" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI", "https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI")</f>
-        <v>https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI</v>
+        <v>1560</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76E2XRw?tk=CLBkUZlLVap</t>
+        </is>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
       <c r="A110">
-        <v>873</v>
-      </c>
-      <c r="B110" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44", "https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44")</f>
-        <v>https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44</v>
+        <v>1561</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76EfPqz?tk=rObFUZlsSwA</t>
+        </is>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="A111">
-        <v>874</v>
-      </c>
-      <c r="B111" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G", "https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G")</f>
-        <v>https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G</v>
+        <v>1562</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76EY5aw?tk=VWG9UZlnk2d</t>
+        </is>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="A112">
-        <v>875</v>
-      </c>
-      <c r="B112" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx", "https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx")</f>
-        <v>https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx</v>
+        <v>1563</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76EN9SF?tk=AUvCUZObicV</t>
+        </is>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
       <c r="A113">
-        <v>876</v>
-      </c>
-      <c r="B113" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx", "https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx")</f>
-        <v>https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx</v>
+        <v>1564</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hosFPs?tk=yeXHUZPS69Q</t>
+        </is>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
       <c r="A114">
-        <v>877</v>
-      </c>
-      <c r="B114" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l", "https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l")</f>
-        <v>https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l</v>
+        <v>1565</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5zwZP?tk=eA5tUZPiXub</t>
+        </is>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
       <c r="A115">
-        <v>878</v>
-      </c>
-      <c r="B115" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy", "https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy")</f>
-        <v>https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy</v>
+        <v>1566</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76FItnu?tk=dv18UZP4mZv</t>
+        </is>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="A116">
-        <v>879</v>
-      </c>
-      <c r="B116" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL", "https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL")</f>
-        <v>https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL</v>
+        <v>1567</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hou1yk?tk=dtsUUZP8OZP</t>
+        </is>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="A117">
-        <v>880</v>
-      </c>
-      <c r="B117" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze", "https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze")</f>
-        <v>https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze</v>
+        <v>1568</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sbp1nU?tk=dI99UZ0sXM0</t>
+        </is>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
       <c r="A118">
-        <v>881</v>
-      </c>
-      <c r="B118" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv", "https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv")</f>
-        <v>https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv</v>
+        <v>1569</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hoyNJN?tk=Bh3TUZPmQUz</t>
+        </is>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="A119">
-        <v>882</v>
-      </c>
-      <c r="B119" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc", "https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc")</f>
-        <v>https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc</v>
+        <v>1570</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76vbkcq?tk=ZQZ8UZPn7bk</t>
+        </is>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
       <c r="A120">
-        <v>883</v>
-      </c>
-      <c r="B120" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z", "https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z")</f>
-        <v>https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z</v>
+        <v>1571</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hg3BkV?tk=uR5yUZPntEL</t>
+        </is>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
       <c r="A121">
-        <v>884</v>
-      </c>
-      <c r="B121" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh", "https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh")</f>
-        <v>https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh</v>
+        <v>1572</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hgV2aY?tk=TQvCUZPMTiy</t>
+        </is>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="A122">
-        <v>885</v>
-      </c>
-      <c r="B122" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL", "https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL")</f>
-        <v>https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL</v>
+        <v>1573</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hg82Ot?tk=QpXhUZPuzef</t>
+        </is>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
       <c r="A123">
-        <v>886</v>
-      </c>
-      <c r="B123" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W", "https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W")</f>
-        <v>https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W</v>
+        <v>1574</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76vgcRj?tk=wCCWUZPuW1l</t>
+        </is>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="A124">
-        <v>887</v>
-      </c>
-      <c r="B124" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV", "https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV")</f>
-        <v>https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV</v>
+        <v>1575</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hgj2F6?tk=BxUnUZPFfBN</t>
+        </is>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
       <c r="A125">
-        <v>888</v>
-      </c>
-      <c r="B125" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51", "https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51")</f>
-        <v>https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51</v>
+        <v>1576</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76vgEhA?tk=ADAfUZPvTJS</t>
+        </is>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="A126">
-        <v>889</v>
-      </c>
-      <c r="B126" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc", "https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc")</f>
-        <v>https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc</v>
+        <v>1577</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hglaHv?tk=k8EDUZPCncA</t>
+        </is>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="A127">
-        <v>890</v>
-      </c>
-      <c r="B127" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC", "https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC")</f>
-        <v>https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC</v>
+        <v>1578</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SPHLin?tk=7owaUZkjfma</t>
+        </is>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
       <c r="A128">
-        <v>891</v>
-      </c>
-      <c r="B128" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc", "https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc")</f>
-        <v>https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc</v>
+        <v>1579</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SPvvgo?tk=ukPsUZkOxta</t>
+        </is>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="A129">
-        <v>892</v>
-      </c>
-      <c r="B129" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd", "https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd")</f>
-        <v>https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd</v>
+        <v>1580</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hMzpCa?tk=6QWQUZkl4L4</t>
+        </is>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
       <c r="A130">
-        <v>893</v>
-      </c>
-      <c r="B130" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni", "https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni")</f>
-        <v>https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni</v>
+        <v>1581</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SPwqlU?tk=mgYQUZkN1oW</t>
+        </is>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="A131">
-        <v>894</v>
-      </c>
-      <c r="B131" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl", "https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl")</f>
-        <v>https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl</v>
+        <v>1582</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5pb9v?tk=bpnwUZP1XFF</t>
+        </is>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="A132">
-        <v>895</v>
-      </c>
-      <c r="B132" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW", "https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW")</f>
-        <v>https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW</v>
+        <v>1583</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SlQZVf?tk=EmvBUZP1gEt</t>
+        </is>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
       <c r="A133">
-        <v>896</v>
-      </c>
-      <c r="B133" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE", "https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE")</f>
-        <v>https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE</v>
+        <v>1584</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5FzIl?tk=QNwsUZP4k6j</t>
+        </is>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="A134">
-        <v>897</v>
-      </c>
-      <c r="B134" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9", "https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9")</f>
-        <v>https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9</v>
+        <v>1585</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76Fsht9?tk=maTmUZP4319</t>
+        </is>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
       <c r="A135">
-        <v>898</v>
-      </c>
-      <c r="B135" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2", "https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2")</f>
-        <v>https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2</v>
+        <v>1586</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76GPzE8?tk=MhcZUZQxnJ9</t>
+        </is>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
       <c r="A136">
-        <v>899</v>
-      </c>
-      <c r="B136" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm", "https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm")</f>
-        <v>https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm</v>
+        <v>1587</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hfRUTx?tk=0AFgUZQBUaW</t>
+        </is>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
       <c r="A137">
-        <v>900</v>
-      </c>
-      <c r="B137" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt", "https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt")</f>
-        <v>https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt</v>
+        <v>1588</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SkDqvZ?tk=k6DqUZ9Kcns</t>
+        </is>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
       <c r="A138">
-        <v>901</v>
-      </c>
-      <c r="B138" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N", "https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N")</f>
-        <v>https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N</v>
+        <v>1589</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SkxEkq?tk=RBCrUZ9K2Vv</t>
+        </is>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="A139">
-        <v>902</v>
-      </c>
-      <c r="B139" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB", "https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB")</f>
-        <v>https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB</v>
+        <v>1590</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hMdXmJ?tk=YOQGUZ9I55L</t>
+        </is>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
       <c r="A140">
-        <v>903</v>
-      </c>
-      <c r="B140" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9", "https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9")</f>
-        <v>https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9</v>
+        <v>1591</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hMUfur?tk=yBrTUZ9Efnx</t>
+        </is>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
       <c r="A141">
-        <v>904</v>
-      </c>
-      <c r="B141" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp", "https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp")</f>
-        <v>https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp</v>
+        <v>1592</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hURlgV?tk=NDYNUZ9EUXa</t>
+        </is>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="A142">
-        <v>905</v>
-      </c>
-      <c r="B142" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ", "https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ")</f>
-        <v>https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ</v>
+        <v>1593</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h4nACV?tk=I8kbUZkclAY</t>
+        </is>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
       <c r="A143">
-        <v>906</v>
-      </c>
-      <c r="B143" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK", "https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK")</f>
-        <v>https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK</v>
+        <v>1594</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hMDoot?tk=0PAKUZkjaIV</t>
+        </is>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
       <c r="A144">
-        <v>907</v>
-      </c>
-      <c r="B144" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG", "https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG")</f>
-        <v>https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG</v>
+        <v>1595</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76HDQW1?tk=n7h7UZj58vX</t>
+        </is>
       </c>
     </row>
     <row r="145" ht="25.5" customHeight="1">
       <c r="A145">
-        <v>908</v>
-      </c>
-      <c r="B145" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne", "https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne")</f>
-        <v>https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne</v>
+        <v>1596</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76tcQhb?tk=G0WGUZjk9v2</t>
+        </is>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
       <c r="A146">
-        <v>909</v>
-      </c>
-      <c r="B146" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM", "https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM")</f>
-        <v>https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM</v>
+        <v>1597</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hmELse?tk=8KcrUZj9w3U</t>
+        </is>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
       <c r="A147">
-        <v>910</v>
-      </c>
-      <c r="B147" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI", "https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI")</f>
-        <v>https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI</v>
+        <v>1598</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h4e4Pf?tk=PB18UZjJJoP</t>
+        </is>
       </c>
     </row>
     <row r="148" ht="25.5" customHeight="1">
       <c r="A148">
-        <v>911</v>
-      </c>
-      <c r="B148" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p", "https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p")</f>
-        <v>https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p</v>
+        <v>1599</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76tSil9?tk=iYQuUZjIE6I</t>
+        </is>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
       <c r="A149">
-        <v>912</v>
-      </c>
-      <c r="B149" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN", "https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN")</f>
-        <v>https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN</v>
+        <v>1600</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hN33RF?tk=AQ03UZjtxGD</t>
+        </is>
       </c>
     </row>
     <row r="150" ht="25.5" customHeight="1">
       <c r="A150">
-        <v>913</v>
-      </c>
-      <c r="B150" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa", "https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa")</f>
-        <v>https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa</v>
+        <v>1601</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7UqIf0i?tk=N7l2fyyeqBg</t>
+        </is>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
       <c r="A151">
-        <v>914</v>
-      </c>
-      <c r="B151" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz", "https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz")</f>
-        <v>https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz</v>
+        <v>1602</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hNx1kD?tk=Lx4FUZQP56Q</t>
+        </is>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
       <c r="A152">
-        <v>915</v>
-      </c>
-      <c r="B152" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu", "https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu")</f>
-        <v>https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu</v>
+        <v>1603</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S5Baia?tk=1qZvUZUDQ1U</t>
+        </is>
       </c>
     </row>
     <row r="153" ht="25.5" customHeight="1">
       <c r="A153">
-        <v>916</v>
-      </c>
-      <c r="B153" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9", "https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9")</f>
-        <v>https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9</v>
+        <v>1604</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hbtsTY?tk=AIHoUZ5XLeB</t>
+        </is>
       </c>
     </row>
     <row r="154" ht="25.5" customHeight="1">
       <c r="A154">
-        <v>917</v>
-      </c>
-      <c r="B154" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo", "https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo")</f>
-        <v>https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo</v>
+        <v>1605</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76MOznK?tk=M3cxUZ5do7U</t>
+        </is>
       </c>
     </row>
     <row r="155" ht="25.5" customHeight="1">
       <c r="A155">
-        <v>918</v>
-      </c>
-      <c r="B155" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK", "https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK")</f>
-        <v>https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK</v>
+        <v>1606</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hR4k1p?tk=8WGaUZ5yfXa</t>
+        </is>
       </c>
     </row>
     <row r="156" ht="25.5" customHeight="1">
       <c r="A156">
-        <v>919</v>
-      </c>
-      <c r="B156" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU", "https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU")</f>
-        <v>https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU</v>
+        <v>1607</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S6GRR9?tk=9xoZUZTsbdx</t>
+        </is>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
       <c r="A157">
-        <v>920</v>
-      </c>
-      <c r="B157" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou", "https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou")</f>
-        <v>https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou</v>
+        <v>1608</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76p3SMN?tk=7lqlUZTHIhq</t>
+        </is>
       </c>
     </row>
     <row r="158" ht="25.5" customHeight="1">
       <c r="A158">
-        <v>921</v>
-      </c>
-      <c r="B158" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe", "https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe")</f>
-        <v>https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe</v>
+        <v>1609</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hj36md?tk=fN3AUZTvCO6</t>
+        </is>
       </c>
     </row>
     <row r="159" ht="25.5" customHeight="1">
       <c r="A159">
-        <v>922</v>
-      </c>
-      <c r="B159" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8", "https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8")</f>
-        <v>https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8</v>
+        <v>1610</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76pgfZ5?tk=JJcpUZTD0VQ</t>
+        </is>
       </c>
     </row>
     <row r="160" ht="25.5" customHeight="1">
       <c r="A160">
-        <v>923</v>
-      </c>
-      <c r="B160" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY", "https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY")</f>
-        <v>https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY</v>
+        <v>1611</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hcn5LK?tk=jCWWUZTEK73</t>
+        </is>
       </c>
     </row>
     <row r="161" ht="25.5" customHeight="1">
       <c r="A161">
-        <v>924</v>
-      </c>
-      <c r="B161" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM", "https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM")</f>
-        <v>https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM</v>
+        <v>1612</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hWD4cx?tk=n2GcUZigY2o</t>
+        </is>
       </c>
     </row>
     <row r="162" ht="25.5" customHeight="1">
       <c r="A162">
-        <v>925</v>
-      </c>
-      <c r="B162" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ", "https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ")</f>
-        <v>https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ</v>
+        <v>1613</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7heh3ZC?tk=m8EvUZRHBRM</t>
+        </is>
       </c>
     </row>
     <row r="163" ht="25.5" customHeight="1">
       <c r="A163">
-        <v>926</v>
-      </c>
-      <c r="B163" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D", "https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D")</f>
-        <v>https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D</v>
+        <v>1614</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hO9GV3?tk=cxiRUZ8Yzv3</t>
+        </is>
       </c>
     </row>
     <row r="164" ht="25.5" customHeight="1">
       <c r="A164">
-        <v>927</v>
-      </c>
-      <c r="B164" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG", "https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG")</f>
-        <v>https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG</v>
+        <v>1615</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76H58he?tk=WMOtUZ8Jtzi</t>
+        </is>
       </c>
     </row>
     <row r="165" ht="25.5" customHeight="1">
       <c r="A165">
-        <v>928</v>
-      </c>
-      <c r="B165" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w", "https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w")</f>
-        <v>https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w</v>
+        <v>1616</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76H8sEM?tk=DmoSUZ8vAZe</t>
+        </is>
       </c>
     </row>
     <row r="166" ht="25.5" customHeight="1">
       <c r="A166">
-        <v>929</v>
-      </c>
-      <c r="B166" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM", "https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM")</f>
-        <v>https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM</v>
+        <v>1617</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hZVgRL?tk=LFATUZ4Oow4</t>
+        </is>
       </c>
     </row>
     <row r="167" ht="25.5" customHeight="1">
       <c r="A167">
-        <v>930</v>
-      </c>
-      <c r="B167" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt", "https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt")</f>
-        <v>https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt</v>
+        <v>1618</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hSXT6s?tk=CbcMUZ4FDEX</t>
+        </is>
       </c>
     </row>
     <row r="168" ht="25.5" customHeight="1">
       <c r="A168">
-        <v>931</v>
-      </c>
-      <c r="B168" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ", "https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ")</f>
-        <v>https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ</v>
+        <v>1619</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hZmobB?tk=XDodUZ4EPd0</t>
+        </is>
       </c>
     </row>
     <row r="169" ht="25.5" customHeight="1">
       <c r="A169">
-        <v>932</v>
-      </c>
-      <c r="B169" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c", "https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c")</f>
-        <v>https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c</v>
+        <v>1620</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hSP7np?tk=YGqcUZfVUEG</t>
+        </is>
       </c>
     </row>
     <row r="170" ht="25.5" customHeight="1">
       <c r="A170">
-        <v>933</v>
-      </c>
-      <c r="B170" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6", "https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6")</f>
-        <v>https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6</v>
+        <v>1621</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h06cue?tk=CJmFUZfpo10</t>
+        </is>
       </c>
     </row>
     <row r="171" ht="25.5" customHeight="1">
       <c r="A171">
-        <v>934</v>
-      </c>
-      <c r="B171" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh", "https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh")</f>
-        <v>https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh</v>
+        <v>1622</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SUIuy9?tk=LCOWUZfqW0t</t>
+        </is>
       </c>
     </row>
     <row r="172" ht="25.5" customHeight="1">
       <c r="A172">
-        <v>935</v>
-      </c>
-      <c r="B172" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb", "https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb")</f>
-        <v>https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb</v>
+        <v>1623</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SUDIeb?tk=QeIZUZfwbIB</t>
+        </is>
       </c>
     </row>
     <row r="173" ht="25.5" customHeight="1">
       <c r="A173">
-        <v>936</v>
-      </c>
-      <c r="B173" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz", "https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz")</f>
-        <v>https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz</v>
+        <v>1624</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SUxufg?tk=FsjUUZfwBSS</t>
+        </is>
       </c>
     </row>
     <row r="174" ht="25.5" customHeight="1">
       <c r="A174">
-        <v>937</v>
-      </c>
-      <c r="B174" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv", "https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv")</f>
-        <v>https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv</v>
+        <v>1625</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6</t>
+        </is>
       </c>
     </row>
     <row r="175" ht="25.5" customHeight="1">
       <c r="A175">
-        <v>938</v>
-      </c>
-      <c r="B175" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw", "https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw")</f>
-        <v>https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw</v>
+        <v>1626</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h0xE0g?tk=4XyuUZUUd8I</t>
+        </is>
       </c>
     </row>
     <row r="176" ht="25.5" customHeight="1">
       <c r="A176">
-        <v>939</v>
-      </c>
-      <c r="B176" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI", "https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI")</f>
-        <v>https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI</v>
+        <v>1627</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S5x6Sd?tk=qsELUZUEspj</t>
+        </is>
       </c>
     </row>
     <row r="177" ht="25.5" customHeight="1">
       <c r="A177">
-        <v>940</v>
-      </c>
-      <c r="B177" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB", "https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB")</f>
-        <v>https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB</v>
+        <v>1628</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S4kyK9?tk=D04LUZVka3X</t>
+        </is>
       </c>
     </row>
     <row r="178" ht="25.5" customHeight="1">
       <c r="A178">
-        <v>941</v>
-      </c>
-      <c r="B178" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj", "https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj")</f>
-        <v>https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj</v>
+        <v>1629</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76OrRex?tk=X0wfUZV9CSd</t>
+        </is>
       </c>
     </row>
     <row r="179" ht="25.5" customHeight="1">
       <c r="A179">
-        <v>942</v>
-      </c>
-      <c r="B179" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN", "https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN")</f>
-        <v>https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN</v>
+        <v>1630</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h6HoBs?tk=MycQUZVPbUf</t>
+        </is>
       </c>
     </row>
     <row r="180" ht="25.5" customHeight="1">
       <c r="A180">
-        <v>943</v>
-      </c>
-      <c r="B180" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY", "https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY")</f>
-        <v>https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY</v>
+        <v>1631</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76OtaQT?tk=6CTxUZVmdPt</t>
+        </is>
       </c>
     </row>
     <row r="181" ht="25.5" customHeight="1">
       <c r="A181">
-        <v>944</v>
-      </c>
-      <c r="B181" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy", "https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy")</f>
-        <v>https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy</v>
+        <v>1632</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76OEzRC?tk=Tfb5UZVLAxq</t>
+        </is>
       </c>
     </row>
     <row r="182" ht="25.5" customHeight="1">
       <c r="A182">
-        <v>945</v>
-      </c>
-      <c r="B182" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq", "https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq")</f>
-        <v>https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq</v>
+        <v>1633</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S4sLLC?tk=Eh0pUZVr3E2</t>
+        </is>
       </c>
     </row>
     <row r="183" ht="25.5" customHeight="1">
       <c r="A183">
-        <v>946</v>
-      </c>
-      <c r="B183" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD", "https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD")</f>
-        <v>https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD</v>
+        <v>1634</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76mbQPh?tk=aijWUZVGcGE</t>
+        </is>
       </c>
     </row>
     <row r="184" ht="25.5" customHeight="1">
       <c r="A184">
-        <v>947</v>
-      </c>
-      <c r="B184" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE", "https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE")</f>
-        <v>https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE</v>
+        <v>1635</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hgG503?tk=A5IUUZ3OfxQ</t>
+        </is>
       </c>
     </row>
     <row r="185" ht="25.5" customHeight="1">
       <c r="A185">
-        <v>948</v>
-      </c>
-      <c r="B185" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf", "https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf")</f>
-        <v>https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf</v>
+        <v>1636</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hhWzGD?tk=DoIEUZVy3cT</t>
+        </is>
       </c>
     </row>
     <row r="186" ht="25.5" customHeight="1">
       <c r="A186">
-        <v>949</v>
-      </c>
-      <c r="B186" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD", "https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD")</f>
-        <v>https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD</v>
+        <v>1637</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SffWli?tk=aFvgUZ4WPZA</t>
+        </is>
       </c>
     </row>
     <row r="187" ht="25.5" customHeight="1">
       <c r="A187">
-        <v>950</v>
-      </c>
-      <c r="B187" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL", "https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL")</f>
-        <v>https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL</v>
+        <v>1638</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7havQug?tk=pfgAUZ4Vbd0</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="25.5" customHeight="1">
+      <c r="A188">
+        <v>1639</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sf4FzI?tk=S5PaUZ4do4n</t>
+        </is>
+      </c>
+    </row>
+    <row r="189" ht="25.5" customHeight="1">
+      <c r="A189">
+        <v>1640</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76mPva6?tk=WxUxUZ4UkbE</t>
+        </is>
+      </c>
+    </row>
+    <row r="190" ht="25.5" customHeight="1">
+      <c r="A190">
+        <v>1641</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sf6OQD?tk=2fyqUZ45dcY</t>
+        </is>
+      </c>
+    </row>
+    <row r="191" ht="25.5" customHeight="1">
+      <c r="A191">
+        <v>1642</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hazqOY?tk=r9yyUZ45LxB</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="25.5" customHeight="1">
+      <c r="A192">
+        <v>1643</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76PJ5sb?tk=sA8eUZ3msd1</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="25.5" customHeight="1">
+      <c r="A193">
+        <v>1644</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SfSkXw?tk=HesFUZ4hFE8</t>
+        </is>
+      </c>
+    </row>
+    <row r="194" ht="25.5" customHeight="1">
+      <c r="A194">
+        <v>1645</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hTw8l7?tk=NePrUZepZZi</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="25.5" customHeight="1">
+      <c r="A195">
+        <v>1646</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76AVvQG?tk=kqm9UZeNycu</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="25.5" customHeight="1">
+      <c r="A196">
+        <v>1647</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76A6Lpv?tk=U1JBUZepGGD</t>
+        </is>
+      </c>
+    </row>
+    <row r="197" ht="25.5" customHeight="1">
+      <c r="A197">
+        <v>1648</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hxM35u?tk=qLn9UaDKo2F</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="25.5" customHeight="1">
+      <c r="A198">
+        <v>1649</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hgHyUu?tk=Z5YFUZ3m3PW</t>
+        </is>
+      </c>
+    </row>
+    <row r="199" ht="25.5" customHeight="1">
+      <c r="A199">
+        <v>1650</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76OWvRj?tk=r2p2UZVaBIR</t>
+        </is>
+      </c>
+    </row>
+    <row r="200" ht="25.5" customHeight="1">
+      <c r="A200">
+        <v>1651</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SeFOKA?tk=pClMUZ3HwXj</t>
+        </is>
+      </c>
+    </row>
+    <row r="201" ht="25.5" customHeight="1">
+      <c r="A201">
+        <v>1652</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sew4IL?tk=1DEnUZ3FbZ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="202" ht="25.5" customHeight="1">
+      <c r="A202">
+        <v>1653</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76z9Zvu?tk=vixfUZ3DKk0</t>
+        </is>
+      </c>
+    </row>
+    <row r="203" ht="25.5" customHeight="1">
+      <c r="A203">
+        <v>1654</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hT2M9o?tk=ejZlUZ3DKOz</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="25.5" customHeight="1">
+      <c r="A204">
+        <v>1655</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76zO7HW?tk=lFcCUZ3COCa</t>
+        </is>
+      </c>
+    </row>
+    <row r="205" ht="25.5" customHeight="1">
+      <c r="A205">
+        <v>1656</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76lbHrT?tk=skemUZ3xUOr</t>
+        </is>
+      </c>
+    </row>
+    <row r="206" ht="25.5" customHeight="1">
+      <c r="A206">
+        <v>1657</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76l1BXG?tk=51OvUZ3z23u</t>
+        </is>
+      </c>
+    </row>
+    <row r="207" ht="25.5" customHeight="1">
+      <c r="A207">
+        <v>1658</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SVcRhx?tk=kIyCUZe0UEQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="208" ht="25.5" customHeight="1">
+      <c r="A208">
+        <v>1659</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hT6y1h?tk=VhVRUZecE27</t>
+        </is>
+      </c>
+    </row>
+    <row r="209" ht="25.5" customHeight="1">
+      <c r="A209">
+        <v>1660</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hTjTsl?tk=vyAoUZe3ui2</t>
+        </is>
+      </c>
+    </row>
+    <row r="210" ht="25.5" customHeight="1">
+      <c r="A210">
+        <v>1661</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hTkROL?tk=8XZcUZe4Pwb</t>
+        </is>
+      </c>
+    </row>
+    <row r="211" ht="25.5" customHeight="1">
+      <c r="A211">
+        <v>1662</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76PKl6z?tk=ulhNUZ3Oy7q</t>
+        </is>
+      </c>
+    </row>
+    <row r="212" ht="25.5" customHeight="1">
+      <c r="A212">
+        <v>1663</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7Sea5Nm?tk=WEdvUZWBnGq</t>
+        </is>
+      </c>
+    </row>
+    <row r="213" ht="25.5" customHeight="1">
+      <c r="A213">
+        <v>1664</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76PXEB5?tk=jXtOUZWziff</t>
+        </is>
+      </c>
+    </row>
+    <row r="214" ht="25.5" customHeight="1">
+      <c r="A214">
+        <v>1665</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hgecgg?tk=UrzTUZWztTy</t>
+        </is>
+      </c>
+    </row>
+    <row r="215" ht="25.5" customHeight="1">
+      <c r="A215">
+        <v>1666</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76P6jE8?tk=KAPoUZ3W3ZC</t>
+        </is>
+      </c>
+    </row>
+    <row r="216" ht="25.5" customHeight="1">
+      <c r="A216">
+        <v>1667</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76BISAE?tk=eoCKUZ3entB</t>
+        </is>
+      </c>
+    </row>
+    <row r="217" ht="25.5" customHeight="1">
+      <c r="A217">
+        <v>1668</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76PqBkR?tk=Mf6sUZ3NXFb</t>
+        </is>
+      </c>
+    </row>
+    <row r="218" ht="25.5" customHeight="1">
+      <c r="A218">
+        <v>1669</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5gzIh?tk=EhuJUZWcVbH</t>
+        </is>
+      </c>
+    </row>
+    <row r="219" ht="25.5" customHeight="1">
+      <c r="A219">
+        <v>1670</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76khcEY?tk=C32CUZWer9e</t>
+        </is>
+      </c>
+    </row>
+    <row r="220" ht="25.5" customHeight="1">
+      <c r="A220">
+        <v>1671</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76ytVkt?tk=vwVEUZWUmfK</t>
+        </is>
+      </c>
+    </row>
+    <row r="221" ht="25.5" customHeight="1">
+      <c r="A221">
+        <v>1672</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76kk8iF?tk=dnFYUZWgzVb</t>
+        </is>
+      </c>
+    </row>
+    <row r="222" ht="25.5" customHeight="1">
+      <c r="A222">
+        <v>1673</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5Pxd3?tk=CdJoUZW667u</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="25.5" customHeight="1">
+      <c r="A223">
+        <v>1674</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7h5lAGN?tk=L7QrUZWhFWe</t>
+        </is>
+      </c>
+    </row>
+    <row r="224" ht="25.5" customHeight="1">
+      <c r="A224">
+        <v>1675</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76yw1l6?tk=M1i4UZW6DTx</t>
+        </is>
+      </c>
+    </row>
+    <row r="225" ht="25.5" customHeight="1">
+      <c r="A225">
+        <v>1676</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7S3CF5T?tk=bxJ4UZWEuQu</t>
+        </is>
+      </c>
+    </row>
+    <row r="226" ht="25.5" customHeight="1">
+      <c r="A226">
+        <v>1677</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.769cAwy?tk=9PjlUZ2yhMi</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="25.5" customHeight="1">
+      <c r="A227">
+        <v>1678</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.76COq4N?tk=Ew9cUZdbb2A</t>
+        </is>
+      </c>
+    </row>
+    <row r="228" ht="25.5" customHeight="1">
+      <c r="A228">
+        <v>1679</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hUNFN9?tk=sQOwUZd7Hio</t>
+        </is>
+      </c>
+    </row>
+    <row r="229" ht="25.5" customHeight="1">
+      <c r="A229">
+        <v>1680</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7hUNfV4?tk=xHdJUZdR0Zo</t>
+        </is>
+      </c>
+    </row>
+    <row r="230" ht="25.5" customHeight="1">
+      <c r="A230">
+        <v>1681</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SWm9MC?tk=E7qXUZdOBqH</t>
+        </is>
+      </c>
+    </row>
+    <row r="231" ht="25.5" customHeight="1">
+      <c r="A231">
+        <v>1682</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>https://m.tb.cn/h.7SWCGwr?tk=4mqaUZdwAKa</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/input/汇总_点赞链接.xlsx
+++ b/input/汇总_点赞链接.xlsx
@@ -354,1676 +354,1937 @@
     </row>
     <row r="2" ht="25.5" customHeight="1">
       <c r="A2">
-        <v>765</v>
+        <v>1683</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG", "https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG")</f>
-        <v>https://m.tb.cn/h.7g1D4Ja?tk=CCoJfztI0sG</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h9sb8d?tk=pD8nU02z1r5", "https://m.tb.cn/h.7h9sb8d?tk=pD8nU02z1r5")</f>
+        <v>https://m.tb.cn/h.7h9sb8d?tk=pD8nU02z1r5</v>
       </c>
     </row>
     <row r="3" ht="25.5" customHeight="1">
       <c r="A3">
-        <v>766</v>
+        <v>1684</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv", "https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv")</f>
-        <v>https://m.tb.cn/h.7gc09Mm?tk=2lIJfztvyjv</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.773TPXM?tk=pQAfU0dZzKm", "https://m.tb.cn/h.773TPXM?tk=pQAfU0dZzKm")</f>
+        <v>https://m.tb.cn/h.773TPXM?tk=pQAfU0dZzKm</v>
       </c>
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4">
-        <v>767</v>
+        <v>1685</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG", "https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG")</f>
-        <v>https://m.tb.cn/h.7gmqsSG?tk=bLgffztyOSG</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H", "https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H")</f>
+        <v>https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H</v>
       </c>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5">
-        <v>768</v>
+        <v>1686</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO", "https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO")</f>
-        <v>https://m.tb.cn/h.7gmIPMj?tk=hw20fztzMCO</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SUwNHE?tk=YBJiU0d50mU", "https://m.tb.cn/h.7SUwNHE?tk=YBJiU0d50mU")</f>
+        <v>https://m.tb.cn/h.7SUwNHE?tk=YBJiU0d50mU</v>
       </c>
     </row>
     <row r="6" ht="25.5" customHeight="1">
       <c r="A6">
-        <v>769</v>
+        <v>1687</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo", "https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo")</f>
-        <v>https://m.tb.cn/h.7gD2gpa?tk=FfcRfzGcmxo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.773t5Lz?tk=iV7oU0dk36l", "https://m.tb.cn/h.773t5Lz?tk=iV7oU0dk36l")</f>
+        <v>https://m.tb.cn/h.773t5Lz?tk=iV7oU0dk36l</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7">
-        <v>770</v>
+        <v>1688</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd", "https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd")</f>
-        <v>https://m.tb.cn/h.7gmx3ii?tk=V6NRfzG3gmd</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S5TWXx?tk=z5zmU0dr8Bf", "https://m.tb.cn/h.7S5TWXx?tk=z5zmU0dr8Bf")</f>
+        <v>https://m.tb.cn/h.7S5TWXx?tk=z5zmU0dr8Bf</v>
       </c>
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="A8">
-        <v>771</v>
+        <v>1689</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D", "https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D")</f>
-        <v>https://m.tb.cn/h.7gcnLZ1?tk=Os0qfzG718D</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77dACBL?tk=ABK8U0Xu5E9", "https://m.tb.cn/h.77dACBL?tk=ABK8U0Xu5E9")</f>
+        <v>https://m.tb.cn/h.77dACBL?tk=ABK8U0Xu5E9</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
       <c r="A9">
-        <v>772</v>
+        <v>1690</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn", "https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn")</f>
-        <v>https://m.tb.cn/h.7gcpkkb?tk=ZaK3fzG8rCn</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxqxwp?tk=fvEgU0XuLkV", "https://m.tb.cn/h.7hxqxwp?tk=fvEgU0XuLkV")</f>
+        <v>https://m.tb.cn/h.7hxqxwp?tk=fvEgU0XuLkV</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
       <c r="A10">
-        <v>773</v>
+        <v>1691</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon", "https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon")</f>
-        <v>https://m.tb.cn/h.7gDoafX?tk=0DFEfzGNqon</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SfnCHu?tk=X1gvU0XAmOf", "https://m.tb.cn/h.7SfnCHu?tk=X1gvU0XAmOf")</f>
+        <v>https://m.tb.cn/h.7SfnCHu?tk=X1gvU0XAmOf</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
       <c r="A11">
-        <v>774</v>
+        <v>1692</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe", "https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe")</f>
-        <v>https://m.tb.cn/h.7gcFdbd?tk=wND6fzGMNNe</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77W71rf?tk=bYkaU022ETw", "https://m.tb.cn/h.77W71rf?tk=bYkaU022ETw")</f>
+        <v>https://m.tb.cn/h.77W71rf?tk=bYkaU022ETw</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="A12">
-        <v>775</v>
+        <v>1693</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8", "https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8")</f>
-        <v>https://m.tb.cn/h.7gN8Yb8?tk=NB4RfzGK6s8</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki", "https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki")</f>
+        <v>https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
       <c r="A13">
-        <v>776</v>
+        <v>1694</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU", "https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU")</f>
-        <v>https://m.tb.cn/h.7gDxmBQ?tk=I0Q8fzGvHOU</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77WorXj?tk=kYIAU02i5Sd", "https://m.tb.cn/h.77WorXj?tk=kYIAU02i5Sd")</f>
+        <v>https://m.tb.cn/h.77WorXj?tk=kYIAU02i5Sd</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
       <c r="A14">
-        <v>777</v>
+        <v>1695</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo", "https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo")</f>
-        <v>https://m.tb.cn/h.7gxXN73?tk=OxoffzubEdo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77WLIZW?tk=sYhqU028jOl", "https://m.tb.cn/h.77WLIZW?tk=sYhqU028jOl")</f>
+        <v>https://m.tb.cn/h.77WLIZW?tk=sYhqU028jOl</v>
       </c>
     </row>
     <row r="15" ht="25.5" customHeight="1">
       <c r="A15">
-        <v>778</v>
+        <v>1696</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX", "https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX")</f>
-        <v>https://m.tb.cn/h.7gx2Fco?tk=6lnafzu1jLX</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77WH5VH?tk=LS0kU02O0Tk", "https://m.tb.cn/h.77WH5VH?tk=LS0kU02O0Tk")</f>
+        <v>https://m.tb.cn/h.77WH5VH?tk=LS0kU02O0Tk</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16">
-        <v>779</v>
+        <v>1697</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq", "https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq")</f>
-        <v>https://m.tb.cn/h.7gOXuyP?tk=uGvzfzHhpgq</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH", "https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH")</f>
+        <v>https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
       <c r="A17">
-        <v>780</v>
+        <v>1698</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ", "https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ")</f>
-        <v>https://m.tb.cn/h.7TIBvyB?tk=RR5PfzHQkwQ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6", "https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6")</f>
+        <v>https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
       <c r="A18">
-        <v>781</v>
+        <v>1699</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ", "https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ")</f>
-        <v>https://m.tb.cn/h.7gOSHSj?tk=QHYwfzHMZeZ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77Wxa0H?tk=RsRLU02pWhF", "https://m.tb.cn/h.77Wxa0H?tk=RsRLU02pWhF")</f>
+        <v>https://m.tb.cn/h.77Wxa0H?tk=RsRLU02pWhF</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19">
-        <v>782</v>
+        <v>1700</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W", "https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W")</f>
-        <v>https://m.tb.cn/h.7gELdOH?tk=jx84fzHnw6W</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hC9H41?tk=ieHpU02pObX", "https://m.tb.cn/h.7hC9H41?tk=ieHpU02pObX")</f>
+        <v>https://m.tb.cn/h.7hC9H41?tk=ieHpU02pObX</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
       <c r="A20">
-        <v>783</v>
+        <v>1701</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH", "https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH")</f>
-        <v>https://m.tb.cn/h.7gO7nld?tk=xqYbfzHnIuH</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SVDMH7?tk=plYlU0cYGmp", "https://m.tb.cn/h.7SVDMH7?tk=plYlU0cYGmp")</f>
+        <v>https://m.tb.cn/h.7SVDMH7?tk=plYlU0cYGmp</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
       <c r="A21">
-        <v>784</v>
+        <v>1702</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7", "https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7")</f>
-        <v>https://m.tb.cn/h.7gOiMzk?tk=2KFlfzHLSS7</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77XkcoB?tk=08fOU0cYGmt", "https://m.tb.cn/h.77XkcoB?tk=08fOU0cYGmt")</f>
+        <v>https://m.tb.cn/h.77XkcoB?tk=08fOU0cYGmt</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22">
-        <v>785</v>
+        <v>1703</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY", "https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY")</f>
-        <v>https://m.tb.cn/h.7gYGyxL?tk=dbytfzHLuNY</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hDwuvu?tk=mWM1U0XaLYR", "https://m.tb.cn/h.7hDwuvu?tk=mWM1U0XaLYR")</f>
+        <v>https://m.tb.cn/h.7hDwuvu?tk=mWM1U0XaLYR</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23">
-        <v>786</v>
+        <v>1704</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9", "https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9")</f>
-        <v>https://m.tb.cn/h.75toHUb?tk=aYxBfz9laD9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S4J0oH?tk=Z9cmU0XYgBy", "https://m.tb.cn/h.7S4J0oH?tk=Z9cmU0XYgBy")</f>
+        <v>https://m.tb.cn/h.7S4J0oH?tk=Z9cmU0XYgBy</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24">
-        <v>787</v>
+        <v>1705</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV", "https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV")</f>
-        <v>https://m.tb.cn/h.7TsT6DW?tk=GzUefzHGgEV</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S4uvKY?tk=krPjU0XePMu", "https://m.tb.cn/h.7S4uvKY?tk=krPjU0XePMu")</f>
+        <v>https://m.tb.cn/h.7S4uvKY?tk=krPjU0XePMu</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25">
-        <v>788</v>
+        <v>1706</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu", "https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu")</f>
-        <v>https://m.tb.cn/h.7TshH66?tk=mpTvfzHGvlu</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxhSLo?tk=ROV6U0Xk9WX", "https://m.tb.cn/h.7hxhSLo?tk=ROV6U0Xk9WX")</f>
+        <v>https://m.tb.cn/h.7hxhSLo?tk=ROV6U0Xk9WX</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26">
-        <v>789</v>
+        <v>1707</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS", "https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS")</f>
-        <v>https://m.tb.cn/h.7TsjN2A?tk=3hEJfzHCXmS</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxSJqE?tk=iz3eU0X9BYE", "https://m.tb.cn/h.7hxSJqE?tk=iz3eU0X9BYE")</f>
+        <v>https://m.tb.cn/h.7hxSJqE?tk=iz3eU0X9BYE</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27">
-        <v>790</v>
+        <v>1708</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F", "https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F")</f>
-        <v>https://m.tb.cn/h.7gODAhE?tk=t8V6fztX34F</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv", "https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv")</f>
+        <v>https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28">
-        <v>791</v>
+        <v>1709</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm", "https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm")</f>
-        <v>https://m.tb.cn/h.7TsKbyi?tk=PZdxfztXOMm</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hx9Pdo?tk=2E5DU0XoWtI", "https://m.tb.cn/h.7hx9Pdo?tk=2E5DU0XoWtI")</f>
+        <v>https://m.tb.cn/h.7hx9Pdo?tk=2E5DU0XoWtI</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29">
-        <v>792</v>
+        <v>1710</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo", "https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo")</f>
-        <v>https://m.tb.cn/h.7gwoWgV?tk=RMSMfztNEIo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77duocy?tk=1DzWU0XoJxL", "https://m.tb.cn/h.77duocy?tk=1DzWU0XoJxL")</f>
+        <v>https://m.tb.cn/h.77duocy?tk=1DzWU0XoJxL</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
       <c r="A30">
-        <v>793</v>
+        <v>1711</v>
       </c>
       <c r="B30" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O", "https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O")</f>
-        <v>https://m.tb.cn/h.7gPbFB3?tk=0uoTfzI5x6O</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hQiI5z?tk=mZhWU0XKVxA", "https://m.tb.cn/h.7hQiI5z?tk=mZhWU0XKVxA")</f>
+        <v>https://m.tb.cn/h.7hQiI5z?tk=mZhWU0XKVxA</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31">
-        <v>794</v>
+        <v>1712</v>
       </c>
       <c r="B31" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J", "https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J")</f>
-        <v>https://m.tb.cn/h.7gPY8h3?tk=oNRwfzITB2J</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77dyWTC?tk=C2HxU0XsMjz", "https://m.tb.cn/h.77dyWTC?tk=C2HxU0XsMjz")</f>
+        <v>https://m.tb.cn/h.77dyWTC?tk=C2HxU0XsMjz</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32">
-        <v>795</v>
+        <v>1713</v>
       </c>
       <c r="B32" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT", "https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT")</f>
-        <v>https://m.tb.cn/h.7gFhfLd?tk=t5znfzITsJT</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxLkPI?tk=w9dNU0XtfJc", "https://m.tb.cn/h.7hxLkPI?tk=w9dNU0XtfJc")</f>
+        <v>https://m.tb.cn/h.7hxLkPI?tk=w9dNU0XtfJc</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
       <c r="A33">
-        <v>796</v>
+        <v>1714</v>
       </c>
       <c r="B33" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X", "https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X")</f>
-        <v>https://m.tb.cn/h.7TJv3eZ?tk=0ouyfzISS2X</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77dAheA?tk=PyW6U0XG2bp", "https://m.tb.cn/h.77dAheA?tk=PyW6U0XG2bp")</f>
+        <v>https://m.tb.cn/h.77dAheA?tk=PyW6U0XG2bp</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
       <c r="A34">
-        <v>797</v>
+        <v>1715</v>
       </c>
       <c r="B34" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9", "https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9")</f>
-        <v>https://m.tb.cn/h.7gFqufG?tk=BKPBfzILSe9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxKxTs?tk=1PCiU0Xtm5E", "https://m.tb.cn/h.7hxKxTs?tk=1PCiU0Xtm5E")</f>
+        <v>https://m.tb.cn/h.7hxKxTs?tk=1PCiU0Xtm5E</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
       <c r="A35">
-        <v>798</v>
+        <v>1716</v>
       </c>
       <c r="B35" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E", "https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E")</f>
-        <v>https://m.tb.cn/h.7Tr55rq?tk=BnLBfzIGc9E</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hwhf6D?tk=ahoAU01lDVo", "https://m.tb.cn/h.7hwhf6D?tk=ahoAU01lDVo")</f>
+        <v>https://m.tb.cn/h.7hwhf6D?tk=ahoAU01lDVo</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="A36">
-        <v>799</v>
+        <v>1717</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId", "https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId")</f>
-        <v>https://m.tb.cn/h.7gPnuCV?tk=OOAefzIvnId</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h8kueA?tk=EgvZU01JyRo", "https://m.tb.cn/h.7h8kueA?tk=EgvZU01JyRo")</f>
+        <v>https://m.tb.cn/h.7h8kueA?tk=EgvZU01JyRo</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
       <c r="A37">
-        <v>800</v>
+        <v>1718</v>
       </c>
       <c r="B37" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV", "https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV")</f>
-        <v>https://m.tb.cn/h.7gbbSeF?tk=XCPDfzIE8kV</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SVqymh?tk=4Hf5U0cc5z3", "https://m.tb.cn/h.7SVqymh?tk=4Hf5U0cc5z3")</f>
+        <v>https://m.tb.cn/h.7SVqymh?tk=4Hf5U0cc5z3</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
       <c r="A38">
-        <v>801</v>
+        <v>1719</v>
       </c>
       <c r="B38" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx", "https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx")</f>
-        <v>https://m.tb.cn/h.7gvUIuV?tk=J3uVfzs4uLx</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A", "https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A")</f>
+        <v>https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
       <c r="A39">
-        <v>802</v>
+        <v>1720</v>
       </c>
       <c r="B39" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F", "https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F")</f>
-        <v>https://m.tb.cn/h.7gl22N3?tk=LIZdfzs7p1F</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S4ZNzT?tk=edhxU0cii3Y", "https://m.tb.cn/h.7S4ZNzT?tk=edhxU0cii3Y")</f>
+        <v>https://m.tb.cn/h.7S4ZNzT?tk=edhxU0cii3Y</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
       <c r="A40">
-        <v>803</v>
+        <v>1721</v>
       </c>
       <c r="B40" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688", "https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688")</f>
-        <v>https://m.tb.cn/h.7gvxUgg?tk=BD3yfzsE688</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1", "https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1")</f>
+        <v>https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
       <c r="A41">
-        <v>804</v>
+        <v>1722</v>
       </c>
       <c r="B41" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr", "https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr")</f>
-        <v>https://m.tb.cn/h.7TIhP8S?tk=6CiXfzsEoWr</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI", "https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI")</f>
+        <v>https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
       <c r="A42">
-        <v>805</v>
+        <v>1723</v>
       </c>
       <c r="B42" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy", "https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy")</f>
-        <v>https://m.tb.cn/h.7gY4EGv?tk=xVLSfzHYGLy</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77XkcnH?tk=Ixo8U01zw4k", "https://m.tb.cn/h.77XkcnH?tk=Ixo8U01zw4k")</f>
+        <v>https://m.tb.cn/h.77XkcnH?tk=Ixo8U01zw4k</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
       <c r="A43">
-        <v>806</v>
+        <v>1724</v>
       </c>
       <c r="B43" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath", "https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath")</f>
-        <v>https://m.tb.cn/h.7gEWwvq?tk=ucttfzH2ath</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SVDMsj?tk=0B0aU01zw4w", "https://m.tb.cn/h.7SVDMsj?tk=0B0aU01zw4w")</f>
+        <v>https://m.tb.cn/h.7SVDMsj?tk=0B0aU01zw4w</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
       <c r="A44">
-        <v>807</v>
+        <v>1725</v>
       </c>
       <c r="B44" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk", "https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk")</f>
-        <v>https://m.tb.cn/h.7TIqkda?tk=IbCJfzHeHYk</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hD3UQU?tk=V1LoU0cYGmi", "https://m.tb.cn/h.7hD3UQU?tk=V1LoU0cYGmi")</f>
+        <v>https://m.tb.cn/h.7hD3UQU?tk=V1LoU0cYGmi</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
       <c r="A45">
-        <v>808</v>
+        <v>1726</v>
       </c>
       <c r="B45" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE", "https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE")</f>
-        <v>https://m.tb.cn/h.7gE5nmq?tk=DMzEfzH4UBE</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SYe1tC?tk=qQNqUZyJ2Nw", "https://m.tb.cn/h.7SYe1tC?tk=qQNqUZyJ2Nw")</f>
+        <v>https://m.tb.cn/h.7SYe1tC?tk=qQNqUZyJ2Nw</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
       <c r="A46">
-        <v>809</v>
+        <v>1727</v>
       </c>
       <c r="B46" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk", "https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk")</f>
-        <v>https://m.tb.cn/h.7gYiUNL?tk=UxZsfzHf1qk</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SAWhdO?tk=BGBlUZBdmLS", "https://m.tb.cn/h.7SAWhdO?tk=BGBlUZBdmLS")</f>
+        <v>https://m.tb.cn/h.7SAWhdO?tk=BGBlUZBdmLS</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
       <c r="A47">
-        <v>810</v>
+        <v>1728</v>
       </c>
       <c r="B47" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43", "https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43")</f>
-        <v>https://m.tb.cn/h.7TqokMP?tk=jdtmfzr2d43</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hsBLlc?tk=FYTDUZzbHUA", "https://m.tb.cn/h.7hsBLlc?tk=FYTDUZzbHUA")</f>
+        <v>https://m.tb.cn/h.7hsBLlc?tk=FYTDUZzbHUA</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
       <c r="A48">
-        <v>811</v>
+        <v>1729</v>
       </c>
       <c r="B48" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki", "https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki")</f>
-        <v>https://m.tb.cn/h.7gNUQVM?tk=9H09fBMDtki</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77b5JfP?tk=HhhCU0ZgOsw", "https://m.tb.cn/h.77b5JfP?tk=HhhCU0ZgOsw")</f>
+        <v>https://m.tb.cn/h.77b5JfP?tk=HhhCU0ZgOsw</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="A49">
-        <v>812</v>
+        <v>1730</v>
       </c>
       <c r="B49" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN", "https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN")</f>
-        <v>https://m.tb.cn/h.7gZkMQb?tk=NyXXfzr6GCN</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hFgP3T?tk=G9qQU00R3Pt", "https://m.tb.cn/h.7hFgP3T?tk=G9qQU00R3Pt")</f>
+        <v>https://m.tb.cn/h.7hFgP3T?tk=G9qQU00R3Pt</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
       <c r="A50">
-        <v>813</v>
+        <v>1731</v>
       </c>
       <c r="B50" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR", "https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR")</f>
-        <v>https://m.tb.cn/h.7gk82E6?tk=CWvqfzrJ1rR</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h7lBJN?tk=dkGoU00FIfl", "https://m.tb.cn/h.7h7lBJN?tk=dkGoU00FIfl")</f>
+        <v>https://m.tb.cn/h.7h7lBJN?tk=dkGoU00FIfl</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
       <c r="A51">
-        <v>814</v>
+        <v>1732</v>
       </c>
       <c r="B51" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn", "https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn")</f>
-        <v>https://m.tb.cn/h.7TJgGav?tk=WMYbfzrubRn</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hvGfeh?tk=dEL5U0bByJs", "https://m.tb.cn/h.7hvGfeh?tk=dEL5U0bByJs")</f>
+        <v>https://m.tb.cn/h.7hvGfeh?tk=dEL5U0bByJs</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
       <c r="A52">
-        <v>815</v>
+        <v>1733</v>
       </c>
       <c r="B52" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m", "https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m")</f>
-        <v>https://m.tb.cn/h.7TJPOLm?tk=QcUAfzIa72m</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hEVnCp?tk=OdKXU0Y7gCz", "https://m.tb.cn/h.7hEVnCp?tk=OdKXU0Y7gCz")</f>
+        <v>https://m.tb.cn/h.7hEVnCp?tk=OdKXU0Y7gCz</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
       <c r="A53">
-        <v>816</v>
+        <v>1734</v>
       </c>
       <c r="B53" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ", "https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ")</f>
-        <v>https://m.tb.cn/h.7gFXFic?tk=JlFwfzIc6KQ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77cqy2C?tk=QC9TU0YO4ea", "https://m.tb.cn/h.77cqy2C?tk=QC9TU0YO4ea")</f>
+        <v>https://m.tb.cn/h.77cqy2C?tk=QC9TU0YO4ea</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="A54">
-        <v>817</v>
+        <v>1735</v>
       </c>
       <c r="B54" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC", "https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC")</f>
-        <v>https://m.tb.cn/h.7TJMY9G?tk=eammfzIcBdC</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77cPj0v?tk=ArNzU0Y7nPB", "https://m.tb.cn/h.77cPj0v?tk=ArNzU0Y7nPB")</f>
+        <v>https://m.tb.cn/h.77cPj0v?tk=ArNzU0Y7nPB</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
       <c r="A55">
-        <v>818</v>
+        <v>1736</v>
       </c>
       <c r="B55" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk", "https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk")</f>
-        <v>https://m.tb.cn/h.7gF5DK5?tk=jLAjfzIUNBk</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hRg06v?tk=PkJBU0YOuSC", "https://m.tb.cn/h.7hRg06v?tk=PkJBU0YOuSC")</f>
+        <v>https://m.tb.cn/h.7hRg06v?tk=PkJBU0YOuSC</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
       <c r="A56">
-        <v>819</v>
+        <v>1737</v>
       </c>
       <c r="B56" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6", "https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6")</f>
-        <v>https://m.tb.cn/h.7g0jnLC?tk=pj2PfzIUgb6</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77X6tQ9?tk=Ag96U01V4LP", "https://m.tb.cn/h.77X6tQ9?tk=Ag96U01V4LP")</f>
+        <v>https://m.tb.cn/h.77X6tQ9?tk=Ag96U01V4LP</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
       <c r="A57">
-        <v>820</v>
+        <v>1738</v>
       </c>
       <c r="B57" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk", "https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk")</f>
-        <v>https://m.tb.cn/h.7gP04AI?tk=NuL2fzI5ifk</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77X6OM5?tk=ZXDzU01eJVM", "https://m.tb.cn/h.77X6OM5?tk=ZXDzU01eJVM")</f>
+        <v>https://m.tb.cn/h.77X6OM5?tk=ZXDzU01eJVM</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
       <c r="A58">
-        <v>821</v>
+        <v>1739</v>
       </c>
       <c r="B58" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2", "https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2")</f>
-        <v>https://m.tb.cn/h.7TJHkp5?tk=mpUXfzI5Zz2</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hEPLoE?tk=u3xxU0Yqql2", "https://m.tb.cn/h.7hEPLoE?tk=u3xxU0Yqql2")</f>
+        <v>https://m.tb.cn/h.7hEPLoE?tk=u3xxU0Yqql2</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
       <c r="A59">
-        <v>822</v>
+        <v>1740</v>
       </c>
       <c r="B59" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs", "https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs")</f>
-        <v>https://m.tb.cn/h.7TK23gY?tk=mFKOfzqqWfs</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h8aylx?tk=dvLzU01fs4q", "https://m.tb.cn/h.7h8aylx?tk=dvLzU01fs4q")</f>
+        <v>https://m.tb.cn/h.7h8aylx?tk=dvLzU01fs4q</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
       <c r="A60">
-        <v>823</v>
+        <v>1741</v>
       </c>
       <c r="B60" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba", "https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba")</f>
-        <v>https://m.tb.cn/h.75AEDEE?tk=6Qt3fzqG2Ba</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77XokFu?tk=YUcvU019luY", "https://m.tb.cn/h.77XokFu?tk=YUcvU019luY")</f>
+        <v>https://m.tb.cn/h.77XokFu?tk=YUcvU019luY</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="A61">
-        <v>824</v>
+        <v>1742</v>
       </c>
       <c r="B61" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA", "https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA")</f>
-        <v>https://m.tb.cn/h.7gQnt62?tk=z0VzfzqFbvA</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.77XLv9L?tk=RUvWU019LB2", "https://m.tb.cn/h.77XLv9L?tk=RUvWU019LB2")</f>
+        <v>https://m.tb.cn/h.77XLv9L?tk=RUvWU019LB2</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
       <c r="A62">
-        <v>825</v>
+        <v>1743</v>
       </c>
       <c r="B62" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf", "https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf")</f>
-        <v>https://m.tb.cn/h.7gtx0iw?tk=mHdBfzqFTgf</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h8UIZK?tk=zSSnU01PC0u", "https://m.tb.cn/h.7h8UIZK?tk=zSSnU01PC0u")</f>
+        <v>https://m.tb.cn/h.7h8UIZK?tk=zSSnU01PC0u</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
       <c r="A63">
-        <v>826</v>
+        <v>1744</v>
       </c>
       <c r="B63" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s", "https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s")</f>
-        <v>https://m.tb.cn/h.7gtzdVB?tk=XN3pfzqxY7s</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hw6dT7?tk=eDriU01Pzru", "https://m.tb.cn/h.7hw6dT7?tk=eDriU01Pzru")</f>
+        <v>https://m.tb.cn/h.7hw6dT7?tk=eDriU01Pzru</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
       <c r="A64">
-        <v>827</v>
+        <v>1745</v>
       </c>
       <c r="B64" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T", "https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T")</f>
-        <v>https://m.tb.cn/h.7g9YNfN?tk=oNAGfzJ5e5T</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hKqjtB?tk=MoJVUZwvRDa", "https://m.tb.cn/h.7hKqjtB?tk=MoJVUZwvRDa")</f>
+        <v>https://m.tb.cn/h.7hKqjtB?tk=MoJVUZwvRDa</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
       <c r="A65">
-        <v>828</v>
+        <v>1746</v>
       </c>
       <c r="B65" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4", "https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4")</f>
-        <v>https://m.tb.cn/h.7gG74Jw?tk=DGgTfzJT7a4</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hVkBiG?tk=TANIUZwC6NH", "https://m.tb.cn/h.7hVkBiG?tk=TANIUZwC6NH")</f>
+        <v>https://m.tb.cn/h.7hVkBiG?tk=TANIUZwC6NH</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
       <c r="A66">
-        <v>829</v>
+        <v>1747</v>
       </c>
       <c r="B66" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50", "https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50")</f>
-        <v>https://m.tb.cn/h.7gG8RzW?tk=Ni1dfzJSg50</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SxzOUI?tk=claGUZwyqus", "https://m.tb.cn/h.7SxzOUI?tk=claGUZwyqus")</f>
+        <v>https://m.tb.cn/h.7SxzOUI?tk=claGUZwyqus</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
       <c r="A67">
-        <v>830</v>
+        <v>1748</v>
       </c>
       <c r="B67" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX", "https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX")</f>
-        <v>https://m.tb.cn/h.7gaPWyu?tk=nLXwfzJiMRX</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Sa6P7G?tk=OLuKUZwEiNr", "https://m.tb.cn/h.7Sa6P7G?tk=OLuKUZwEiNr")</f>
+        <v>https://m.tb.cn/h.7Sa6P7G?tk=OLuKUZwEiNr</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
       <c r="A68">
-        <v>831</v>
+        <v>1749</v>
       </c>
       <c r="B68" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo", "https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo")</f>
-        <v>https://m.tb.cn/h.7gGlmZ4?tk=G6mrfzJkVTo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h4dfXV?tk=iMbDUZDPPd3", "https://m.tb.cn/h.7h4dfXV?tk=iMbDUZDPPd3")</f>
+        <v>https://m.tb.cn/h.7h4dfXV?tk=iMbDUZDPPd3</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
       <c r="A69">
-        <v>832</v>
+        <v>1750</v>
       </c>
       <c r="B69" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu", "https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu")</f>
-        <v>https://m.tb.cn/h.7UWzDWP?tk=OPgifywU9zu</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hq9B1P?tk=reXeUZDJt9e", "https://m.tb.cn/h.7hq9B1P?tk=reXeUZDJt9e")</f>
+        <v>https://m.tb.cn/h.7hq9B1P?tk=reXeUZDJt9e</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
       <c r="A70">
-        <v>833</v>
+        <v>1751</v>
       </c>
       <c r="B70" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg", "https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg")</f>
-        <v>https://m.tb.cn/h.7Tk0pQn?tk=vDkyfzPDAVg</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Tuf07Z?tk=tMIifzFrEGD", "https://m.tb.cn/h.7Tuf07Z?tk=tMIifzFrEGD")</f>
+        <v>https://m.tb.cn/h.7Tuf07Z?tk=tMIifzFrEGD</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
       <c r="A71">
-        <v>834</v>
+        <v>1752</v>
       </c>
       <c r="B71" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi", "https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi")</f>
-        <v>https://m.tb.cn/h.7gMvU0t?tk=IUhRfzPCpVi</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SZRXsM?tk=QxLAUZDwkMv", "https://m.tb.cn/h.7SZRXsM?tk=QxLAUZDwkMv")</f>
+        <v>https://m.tb.cn/h.7SZRXsM?tk=QxLAUZDwkMv</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
       <c r="A72">
-        <v>835</v>
+        <v>1753</v>
       </c>
       <c r="B72" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV", "https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV")</f>
-        <v>https://m.tb.cn/h.7goWIsH?tk=aeXtfzlV0yV</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SZnexx?tk=SmwrUZx0IPQ", "https://m.tb.cn/h.7SZnexx?tk=SmwrUZx0IPQ")</f>
+        <v>https://m.tb.cn/h.7SZnexx?tk=SmwrUZx0IPQ</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
       <c r="A73">
-        <v>836</v>
+        <v>1754</v>
       </c>
       <c r="B73" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo", "https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo")</f>
-        <v>https://m.tb.cn/h.7gg4DtJ?tk=6IqRfzlkPBo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h4uyLa?tk=jUPyUZxdbc9", "https://m.tb.cn/h.7h4uyLa?tk=jUPyUZxdbc9")</f>
+        <v>https://m.tb.cn/h.7h4uyLa?tk=jUPyUZxdbc9</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
       <c r="A74">
-        <v>837</v>
+        <v>1755</v>
       </c>
       <c r="B74" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9", "https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9")</f>
-        <v>https://m.tb.cn/h.7gT1P3C?tk=9z3bfzO6lD9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7UqIf0i?tk=N7l2fyyeqBg", "https://m.tb.cn/h.7UqIf0i?tk=N7l2fyyeqBg")</f>
+        <v>https://m.tb.cn/h.7UqIf0i?tk=N7l2fyyeqBg</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
       <c r="A75">
-        <v>838</v>
+        <v>1756</v>
       </c>
       <c r="B75" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN", "https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN")</f>
-        <v>https://m.tb.cn/h.7gputrm?tk=Ctx5fzmvwlN</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hJqg6k?tk=tzoTUZxEKvA", "https://m.tb.cn/h.7hJqg6k?tk=tzoTUZxEKvA")</f>
+        <v>https://m.tb.cn/h.7hJqg6k?tk=tzoTUZxEKvA</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="A76">
-        <v>839</v>
+        <v>1757</v>
       </c>
       <c r="B76" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA", "https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA")</f>
-        <v>https://m.tb.cn/h.75wYJiJ?tk=sJvZfzmEziA</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7S0tDr3?tk=csfaUZCgnu2", "https://m.tb.cn/h.7S0tDr3?tk=csfaUZCgnu2")</f>
+        <v>https://m.tb.cn/h.7S0tDr3?tk=csfaUZCgnu2</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
       <c r="A77">
-        <v>840</v>
+        <v>1758</v>
       </c>
       <c r="B77" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3", "https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3")</f>
-        <v>https://m.tb.cn/h.75Ds8Zg?tk=oTBifznnkz3</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SDw2R8?tk=CNc3UZEDQwE", "https://m.tb.cn/h.7SDw2R8?tk=CNc3UZEDQwE")</f>
+        <v>https://m.tb.cn/h.7SDw2R8?tk=CNc3UZEDQwE</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
       <c r="A78">
-        <v>841</v>
+        <v>1759</v>
       </c>
       <c r="B78" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98", "https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98")</f>
-        <v>https://m.tb.cn/h.7gs0QmB?tk=jGXJfzLyh98</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hASPHo?tk=aMwNUZEBRUW", "https://m.tb.cn/h.7hASPHo?tk=aMwNUZEBRUW")</f>
+        <v>https://m.tb.cn/h.7hASPHo?tk=aMwNUZEBRUW</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
       <c r="A79">
-        <v>842</v>
+        <v>1760</v>
       </c>
       <c r="B79" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1", "https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1")</f>
-        <v>https://m.tb.cn/h.7gsbwyZ?tk=9SoYfzLylm1</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Sx0BoQ?tk=mXpDUZw0Fij", "https://m.tb.cn/h.7Sx0BoQ?tk=mXpDUZw0Fij")</f>
+        <v>https://m.tb.cn/h.7Sx0BoQ?tk=mXpDUZw0Fij</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
       <c r="A80">
-        <v>843</v>
+        <v>1761</v>
       </c>
       <c r="B80" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2", "https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2")</f>
-        <v>https://m.tb.cn/h.75zkgQH?tk=jIGIfzK7DQ2</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hKR4Fc?tk=FXXkUZwmtkN", "https://m.tb.cn/h.7hKR4Fc?tk=FXXkUZwmtkN")</f>
+        <v>https://m.tb.cn/h.7hKR4Fc?tk=FXXkUZwmtkN</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
       <c r="A81">
-        <v>844</v>
+        <v>1762</v>
       </c>
       <c r="B81" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i", "https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i")</f>
-        <v>https://m.tb.cn/h.7gj5m0Y?tk=ffABfzKN74i</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SaTNt1?tk=lm8vUZwuKDU", "https://m.tb.cn/h.7SaTNt1?tk=lm8vUZwuKDU")</f>
+        <v>https://m.tb.cn/h.7SaTNt1?tk=lm8vUZwuKDU</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
       <c r="A82">
-        <v>845</v>
+        <v>1763</v>
       </c>
       <c r="B82" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW", "https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW")</f>
-        <v>https://m.tb.cn/h.7TpOUKn?tk=vYrrfzqcpBW</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SwB6GM?tk=vtPQUZvA8y7", "https://m.tb.cn/h.7SwB6GM?tk=vtPQUZvA8y7")</f>
+        <v>https://m.tb.cn/h.7SwB6GM?tk=vtPQUZvA8y7</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
       <c r="A83">
-        <v>846</v>
+        <v>1764</v>
       </c>
       <c r="B83" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd", "https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd")</f>
-        <v>https://m.tb.cn/h.7gt3gAL?tk=IEtOfzq2RJd</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SDYO88?tk=TKRQUZEc2Qj", "https://m.tb.cn/h.7SDYO88?tk=TKRQUZEc2Qj")</f>
+        <v>https://m.tb.cn/h.7SDYO88?tk=TKRQUZEc2Qj</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
       <c r="A84">
-        <v>847</v>
+        <v>1765</v>
       </c>
       <c r="B84" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0", "https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0")</f>
-        <v>https://m.tb.cn/h.7gUQoyv?tk=XW6XfzkIQb0</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hzqX54?tk=L886UZEUiY9", "https://m.tb.cn/h.7hzqX54?tk=L886UZEUiY9")</f>
+        <v>https://m.tb.cn/h.7hzqX54?tk=L886UZEUiY9</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
       <c r="A85">
-        <v>848</v>
+        <v>1766</v>
       </c>
       <c r="B85" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3", "https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3")</f>
-        <v>https://m.tb.cn/h.7TQuOSB?tk=Ywiifzkqbw3</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hzpERA?tk=aILWUZEfReZ", "https://m.tb.cn/h.7hzpERA?tk=aILWUZEfReZ")</f>
+        <v>https://m.tb.cn/h.7hzpERA?tk=aILWUZEfReZ</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
       <c r="A86">
-        <v>849</v>
+        <v>1767</v>
       </c>
       <c r="B86" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J", "https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J")</f>
-        <v>https://m.tb.cn/h.7gnE8YC?tk=yyeHfzPaX5J</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hAajhO?tk=v1VFUZEoC2g", "https://m.tb.cn/h.7hAajhO?tk=v1VFUZEoC2g")</f>
+        <v>https://m.tb.cn/h.7hAajhO?tk=v1VFUZEoC2g</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
       <c r="A87">
-        <v>850</v>
+        <v>1768</v>
       </c>
       <c r="B87" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6", "https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6")</f>
-        <v>https://m.tb.cn/h.7gM6OgI?tk=X4OUfzPQ2T6</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SDrxob?tk=aIE4UZEslt8", "https://m.tb.cn/h.7SDrxob?tk=aIE4UZEslt8")</f>
+        <v>https://m.tb.cn/h.7SDrxob?tk=aIE4UZEslt8</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
       <c r="A88">
-        <v>851</v>
+        <v>1769</v>
       </c>
       <c r="B88" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ", "https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ")</f>
-        <v>https://m.tb.cn/h.7gM9vnv?tk=C4XvfzPNHiZ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hAdYuK?tk=MBecUZEsC0X", "https://m.tb.cn/h.7hAdYuK?tk=MBecUZEsC0X")</f>
+        <v>https://m.tb.cn/h.7hAdYuK?tk=MBecUZEsC0X</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
       <c r="A89">
-        <v>852</v>
+        <v>1770</v>
       </c>
       <c r="B89" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0", "https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0")</f>
-        <v>https://m.tb.cn/h.7g5Sv4b?tk=IYwzfzPMwW0</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hA57Wg?tk=T2vrUZEElko", "https://m.tb.cn/h.7hA57Wg?tk=T2vrUZEElko")</f>
+        <v>https://m.tb.cn/h.7hA57Wg?tk=T2vrUZEElko</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
       <c r="A90">
-        <v>853</v>
+        <v>1771</v>
       </c>
       <c r="B90" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN", "https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN")</f>
-        <v>https://m.tb.cn/h.7T9FBxX?tk=EzBNfzPpjfN</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hA57Bb?tk=deR3UZEEhdT", "https://m.tb.cn/h.7hA57Bb?tk=deR3UZEEhdT")</f>
+        <v>https://m.tb.cn/h.7hA57Bb?tk=deR3UZEEhdT</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="A91">
-        <v>854</v>
+        <v>1772</v>
       </c>
       <c r="B91" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd", "https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd")</f>
-        <v>https://m.tb.cn/h.7g5PAlj?tk=Jo1SfzPI9cd</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hAggC2?tk=CDs5UZEDqd0", "https://m.tb.cn/h.7hAggC2?tk=CDs5UZEDqd0")</f>
+        <v>https://m.tb.cn/h.7hAggC2?tk=CDs5UZEDqd0</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="A92">
-        <v>855</v>
+        <v>1773</v>
       </c>
       <c r="B92" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB", "https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB")</f>
-        <v>https://m.tb.cn/h.7gfTOjM?tk=CjDcfz9LlZB</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hpIMjb?tk=VTxcUZEwNmK", "https://m.tb.cn/h.7hpIMjb?tk=VTxcUZEwNmK")</f>
+        <v>https://m.tb.cn/h.7hpIMjb?tk=VTxcUZEwNmK</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
       <c r="A93">
-        <v>856</v>
+        <v>1774</v>
       </c>
       <c r="B93" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv", "https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv")</f>
-        <v>https://m.tb.cn/h.7gNrPFT?tk=M5qVfz9Fbiv</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SDEDQV?tk=ck6YUZEx0Ge", "https://m.tb.cn/h.7SDEDQV?tk=ck6YUZEx0Ge")</f>
+        <v>https://m.tb.cn/h.7SDEDQV?tk=ck6YUZEx0Ge</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
       <c r="A94">
-        <v>857</v>
+        <v>1775</v>
       </c>
       <c r="B94" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr", "https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr")</f>
-        <v>https://m.tb.cn/h.7gNCyVt?tk=SKqAfzkabpr</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hWwTNV?tk=o9AtUZv5DuE", "https://m.tb.cn/h.7hWwTNV?tk=o9AtUZv5DuE")</f>
+        <v>https://m.tb.cn/h.7hWwTNV?tk=o9AtUZv5DuE</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
       <c r="A95">
-        <v>858</v>
+        <v>1776</v>
       </c>
       <c r="B95" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo", "https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo")</f>
-        <v>https://m.tb.cn/h.7gUhdJz?tk=qblffzknUVo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SwflkA?tk=CT0xUZv5EI4", "https://m.tb.cn/h.7SwflkA?tk=CT0xUZv5EI4")</f>
+        <v>https://m.tb.cn/h.7SwflkA?tk=CT0xUZv5EI4</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
       <c r="A96">
-        <v>859</v>
+        <v>1777</v>
       </c>
       <c r="B96" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm", "https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm")</f>
-        <v>https://m.tb.cn/h.75GHPZ7?tk=uDNpfzkLHXm</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hBx9c4?tk=8LukUZvOsEZ", "https://m.tb.cn/h.7hBx9c4?tk=8LukUZvOsEZ")</f>
+        <v>https://m.tb.cn/h.7hBx9c4?tk=8LukUZvOsEZ</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
       <c r="A97">
-        <v>860</v>
+        <v>1778</v>
       </c>
       <c r="B97" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV", "https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV")</f>
-        <v>https://m.tb.cn/h.7gnM2TS?tk=6T9yfzkJ4qV</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SwP7Hx?tk=KpyFUZvmB7y", "https://m.tb.cn/h.7SwP7Hx?tk=KpyFUZvmB7y")</f>
+        <v>https://m.tb.cn/h.7SwP7Hx?tk=KpyFUZvmB7y</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
       <c r="A98">
-        <v>861</v>
+        <v>1779</v>
       </c>
       <c r="B98" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68", "https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68")</f>
-        <v>https://m.tb.cn/h.7gODiWV?tk=sgD1fzQbg68</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hLjuPj?tk=EX7IUZvoqtt", "https://m.tb.cn/h.7hLjuPj?tk=EX7IUZvoqtt")</f>
+        <v>https://m.tb.cn/h.7hLjuPj?tk=EX7IUZvoqtt</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
       <c r="A99">
-        <v>862</v>
+        <v>1780</v>
       </c>
       <c r="B99" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ", "https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ")</f>
-        <v>https://m.tb.cn/h.75Hs5y8?tk=OL1xfzQL8hJ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hz0UiU?tk=t2kmUZvK1uh", "https://m.tb.cn/h.7hz0UiU?tk=t2kmUZvK1uh")</f>
+        <v>https://m.tb.cn/h.7hz0UiU?tk=t2kmUZvK1uh</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
       <c r="A100">
-        <v>863</v>
+        <v>1781</v>
       </c>
       <c r="B100" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr", "https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr")</f>
-        <v>https://m.tb.cn/h.75HEHfu?tk=fmukfzQIVPr</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h6e2wC?tk=wTz7UZeCp5d", "https://m.tb.cn/h.7h6e2wC?tk=wTz7UZeCp5d")</f>
+        <v>https://m.tb.cn/h.7h6e2wC?tk=wTz7UZeCp5d</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="A101">
-        <v>864</v>
+        <v>1782</v>
       </c>
       <c r="B101" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L", "https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L")</f>
-        <v>https://m.tb.cn/h.75t6m0l?tk=GtvKfz9eo4L</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SwJgrX?tk=3sBxUZvIFP3", "https://m.tb.cn/h.7SwJgrX?tk=3sBxUZvIFP3")</f>
+        <v>https://m.tb.cn/h.7SwJgrX?tk=3sBxUZvIFP3</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
       <c r="A102">
-        <v>865</v>
+        <v>1783</v>
       </c>
       <c r="B102" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy", "https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy")</f>
-        <v>https://m.tb.cn/h.7gNdnN8?tk=nwUdfz9UOHy</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hzcOOb?tk=GPZVUZvrFd2", "https://m.tb.cn/h.7hzcOOb?tk=GPZVUZvrFd2")</f>
+        <v>https://m.tb.cn/h.7hzcOOb?tk=GPZVUZvrFd2</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
       <c r="A103">
-        <v>866</v>
+        <v>1784</v>
       </c>
       <c r="B103" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0", "https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0")</f>
-        <v>https://m.tb.cn/h.7gV8mQx?tk=LAkVfzjFVo0</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h3SUzJ?tk=dVmFUZvuekk", "https://m.tb.cn/h.7h3SUzJ?tk=dVmFUZvuekk")</f>
+        <v>https://m.tb.cn/h.7h3SUzJ?tk=dVmFUZvuekk</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
       <c r="A104">
-        <v>867</v>
+        <v>1785</v>
       </c>
       <c r="B104" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4", "https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4")</f>
-        <v>https://m.tb.cn/h.75sCcbM?tk=VHqHfzjFMm4</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hLrxAe?tk=oHP6UZvvXvw", "https://m.tb.cn/h.7hLrxAe?tk=oHP6UZvvXvw")</f>
+        <v>https://m.tb.cn/h.7hLrxAe?tk=oHP6UZvvXvw</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
       <c r="A105">
-        <v>868</v>
+        <v>1786</v>
       </c>
       <c r="B105" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9", "https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9")</f>
-        <v>https://m.tb.cn/h.7gOF8OV?tk=1InkfzjB2G9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h3SSVd?tk=jHwAUZvuTlX", "https://m.tb.cn/h.7h3SSVd?tk=jHwAUZvuTlX")</f>
+        <v>https://m.tb.cn/h.7h3SSVd?tk=jHwAUZvuTlX</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
       <c r="A106">
-        <v>869</v>
+        <v>1787</v>
       </c>
       <c r="B106" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc", "https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc")</f>
-        <v>https://m.tb.cn/h.75HWG6y?tk=QmcofzQcYyc</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.75faZV5?tk=Oe57fBWXXrl", "https://m.tb.cn/h.75faZV5?tk=Oe57fBWXXrl")</f>
+        <v>https://m.tb.cn/h.75faZV5?tk=Oe57fBWXXrl</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
       <c r="A107">
-        <v>870</v>
+        <v>1788</v>
       </c>
       <c r="B107" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j", "https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j")</f>
-        <v>https://m.tb.cn/h.75HQRN3?tk=yoWPfzQhV8j</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hoTpAq?tk=3T1RUZFPKHr", "https://m.tb.cn/h.7hoTpAq?tk=3T1RUZFPKHr")</f>
+        <v>https://m.tb.cn/h.7hoTpAq?tk=3T1RUZFPKHr</v>
       </c>
     </row>
     <row r="108" ht="25.5" customHeight="1">
       <c r="A108">
-        <v>871</v>
+        <v>1789</v>
       </c>
       <c r="B108" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg", "https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg")</f>
-        <v>https://m.tb.cn/h.75IJ6bA?tk=GKROfz8oSmg</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hotCr9?tk=y0woUZFzbFK", "https://m.tb.cn/h.7hotCr9?tk=y0woUZFzbFK")</f>
+        <v>https://m.tb.cn/h.7hotCr9?tk=y0woUZFzbFK</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
       <c r="A109">
-        <v>872</v>
+        <v>1790</v>
       </c>
       <c r="B109" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI", "https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI")</f>
-        <v>https://m.tb.cn/h.75IthvI?tk=AZ95fz8JbLI</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7houlJT?tk=UJEDUZFABxs", "https://m.tb.cn/h.7houlJT?tk=UJEDUZFABxs")</f>
+        <v>https://m.tb.cn/h.7houlJT?tk=UJEDUZFABxs</v>
       </c>
     </row>
     <row r="110" ht="25.5" customHeight="1">
       <c r="A110">
-        <v>873</v>
+        <v>1791</v>
       </c>
       <c r="B110" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44", "https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44")</f>
-        <v>https://m.tb.cn/h.75sYTHc?tk=HbDDfzjaD44</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hWuzY7?tk=24zRUZv4M7P", "https://m.tb.cn/h.7hWuzY7?tk=24zRUZv4M7P")</f>
+        <v>https://m.tb.cn/h.7hWuzY7?tk=24zRUZv4M7P</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="A111">
-        <v>874</v>
+        <v>1792</v>
       </c>
       <c r="B111" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G", "https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G")</f>
-        <v>https://m.tb.cn/h.75s1YLh?tk=9HJYfzjax2G</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hWv2Am?tk=NxlmUZv5H66", "https://m.tb.cn/h.7hWv2Am?tk=NxlmUZv5H66")</f>
+        <v>https://m.tb.cn/h.7hWv2Am?tk=NxlmUZv5H66</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
       <c r="A112">
-        <v>875</v>
+        <v>1793</v>
       </c>
       <c r="B112" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx", "https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx")</f>
-        <v>https://m.tb.cn/h.7TR25OO?tk=l5wffzj0wOx</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hCvFaU?tk=31phUZukVZh", "https://m.tb.cn/h.7hCvFaU?tk=31phUZukVZh")</f>
+        <v>https://m.tb.cn/h.7hCvFaU?tk=31phUZukVZh</v>
       </c>
     </row>
     <row r="113" ht="25.5" customHeight="1">
       <c r="A113">
-        <v>876</v>
+        <v>1794</v>
       </c>
       <c r="B113" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx", "https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx")</f>
-        <v>https://m.tb.cn/h.7geMrci?tk=ELKBfzjb7fx</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SvJPrU?tk=q7oFUZurwqT", "https://m.tb.cn/h.7SvJPrU?tk=q7oFUZurwqT")</f>
+        <v>https://m.tb.cn/h.7SvJPrU?tk=q7oFUZurwqT</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
       <c r="A114">
-        <v>877</v>
+        <v>1795</v>
       </c>
       <c r="B114" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l", "https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l")</f>
-        <v>https://m.tb.cn/h.7geK4kd?tk=GtUVfzj1L7l</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Ssp6b9?tk=eijcUZrvKqK", "https://m.tb.cn/h.7Ssp6b9?tk=eijcUZrvKqK")</f>
+        <v>https://m.tb.cn/h.7Ssp6b9?tk=eijcUZrvKqK</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
       <c r="A115">
-        <v>878</v>
+        <v>1796</v>
       </c>
       <c r="B115" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy", "https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy")</f>
-        <v>https://m.tb.cn/h.7glAWeL?tk=oE5Ofzjcnyy</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hyUK0y?tk=HlAXUZuxogh", "https://m.tb.cn/h.7hyUK0y?tk=HlAXUZuxogh")</f>
+        <v>https://m.tb.cn/h.7hyUK0y?tk=HlAXUZuxogh</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
       <c r="A116">
-        <v>879</v>
+        <v>1797</v>
       </c>
       <c r="B116" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL", "https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL")</f>
-        <v>https://m.tb.cn/h.7geKDHa?tk=NAdJfzjXaEL</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SEaY1j?tk=VuizUZFbuAQ", "https://m.tb.cn/h.7SEaY1j?tk=VuizUZFbuAQ")</f>
+        <v>https://m.tb.cn/h.7SEaY1j?tk=VuizUZFbuAQ</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
       <c r="A117">
-        <v>880</v>
+        <v>1798</v>
       </c>
       <c r="B117" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze", "https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze")</f>
-        <v>https://m.tb.cn/h.7TRjxP2?tk=x6lifzjgEze</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.76AVvQG?tk=kqm9UZeNycu", "https://m.tb.cn/h.76AVvQG?tk=kqm9UZeNycu")</f>
+        <v>https://m.tb.cn/h.76AVvQG?tk=kqm9UZeNycu</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
       <c r="A118">
-        <v>881</v>
+        <v>1799</v>
       </c>
       <c r="B118" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv", "https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv")</f>
-        <v>https://m.tb.cn/h.7Ti0rHB?tk=BDfEfzRxExv</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SEYM7h?tk=Vvu4UZFWoxh", "https://m.tb.cn/h.7SEYM7h?tk=Vvu4UZFWoxh")</f>
+        <v>https://m.tb.cn/h.7SEYM7h?tk=Vvu4UZFWoxh</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
       <c r="A119">
-        <v>882</v>
+        <v>1800</v>
       </c>
       <c r="B119" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc", "https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc")</f>
-        <v>https://m.tb.cn/h.7g3oyvG?tk=m2YSfz8Ylqc</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hobjHf?tk=VxxnUZFVor5", "https://m.tb.cn/h.7hobjHf?tk=VxxnUZFVor5")</f>
+        <v>https://m.tb.cn/h.7hobjHf?tk=VxxnUZFVor5</v>
       </c>
     </row>
     <row r="120" ht="25.5" customHeight="1">
       <c r="A120">
-        <v>883</v>
+        <v>1801</v>
       </c>
       <c r="B120" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z", "https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z")</f>
-        <v>https://m.tb.cn/h.7geaGUo?tk=bVEbfz8Qa0z</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hdFShE?tk=7rd7UZF5QPW", "https://m.tb.cn/h.7hdFShE?tk=7rd7UZF5QPW")</f>
+        <v>https://m.tb.cn/h.7hdFShE?tk=7rd7UZF5QPW</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
       <c r="A121">
-        <v>884</v>
+        <v>1802</v>
       </c>
       <c r="B121" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh", "https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh")</f>
-        <v>https://m.tb.cn/h.7gl5aGD?tk=JgRqfz8iAfh</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h2eYtE?tk=ySdPUZGrgoE", "https://m.tb.cn/h.7h2eYtE?tk=ySdPUZGrgoE")</f>
+        <v>https://m.tb.cn/h.7h2eYtE?tk=ySdPUZGrgoE</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
       <c r="A122">
-        <v>885</v>
+        <v>1803</v>
       </c>
       <c r="B122" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL", "https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL")</f>
-        <v>https://m.tb.cn/h.75IOCmY?tk=pnuyfz896nL</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h2S4mW?tk=lmMNUZGx0L9", "https://m.tb.cn/h.7h2S4mW?tk=lmMNUZGx0L9")</f>
+        <v>https://m.tb.cn/h.7h2S4mW?tk=lmMNUZGx0L9</v>
       </c>
     </row>
     <row r="123" ht="25.5" customHeight="1">
       <c r="A123">
-        <v>886</v>
+        <v>1804</v>
       </c>
       <c r="B123" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W", "https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W")</f>
-        <v>https://m.tb.cn/h.7geXFO1?tk=7EPTfz8OA5W</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hCUu89?tk=JfksUZGDMAj", "https://m.tb.cn/h.7hCUu89?tk=JfksUZGDMAj")</f>
+        <v>https://m.tb.cn/h.7hCUu89?tk=JfksUZGDMAj</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
       <c r="A124">
-        <v>887</v>
+        <v>1805</v>
       </c>
       <c r="B124" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV", "https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV")</f>
-        <v>https://m.tb.cn/h.7g2Kfv2?tk=5oG2fz7XbPV</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hC7qG7?tk=MyP6UZuZYdH", "https://m.tb.cn/h.7hC7qG7?tk=MyP6UZuZYdH")</f>
+        <v>https://m.tb.cn/h.7hC7qG7?tk=MyP6UZuZYdH</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
       <c r="A125">
-        <v>888</v>
+        <v>1806</v>
       </c>
       <c r="B125" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51", "https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51")</f>
-        <v>https://m.tb.cn/h.7gWWpc1?tk=S3VWfziMj51</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h2OTqF?tk=cAxAUZu1eCS", "https://m.tb.cn/h.7h2OTqF?tk=cAxAUZu1eCS")</f>
+        <v>https://m.tb.cn/h.7h2OTqF?tk=cAxAUZu1eCS</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
       <c r="A126">
-        <v>889</v>
+        <v>1807</v>
       </c>
       <c r="B126" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc", "https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc")</f>
-        <v>https://m.tb.cn/h.7TSGHHy?tk=Y139fziJIPc</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h2sbI1?tk=1h33UZu4wV3", "https://m.tb.cn/h.7h2sbI1?tk=1h33UZu4wV3")</f>
+        <v>https://m.tb.cn/h.7h2sbI1?tk=1h33UZu4wV3</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
       <c r="A127">
-        <v>890</v>
+        <v>1808</v>
       </c>
       <c r="B127" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC", "https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC")</f>
-        <v>https://m.tb.cn/h.75JDgD1?tk=vGfxfziviuC</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hCHtsr?tk=vbdFUZu8m9e", "https://m.tb.cn/h.7hCHtsr?tk=vbdFUZu8m9e")</f>
+        <v>https://m.tb.cn/h.7hCHtsr?tk=vbdFUZu8m9e</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
       <c r="A128">
-        <v>891</v>
+        <v>1809</v>
       </c>
       <c r="B128" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc", "https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc")</f>
-        <v>https://m.tb.cn/h.7gWu34A?tk=OXRufzR4xfc</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hMfaEN?tk=7QEfUZuQ6fp", "https://m.tb.cn/h.7hMfaEN?tk=7QEfUZuQ6fp")</f>
+        <v>https://m.tb.cn/h.7hMfaEN?tk=7QEfUZuQ6fp</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
       <c r="A129">
-        <v>892</v>
+        <v>1810</v>
       </c>
       <c r="B129" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd", "https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd")</f>
-        <v>https://m.tb.cn/h.7gPYF4f?tk=npdNfzRU0Vd</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Suv2nK?tk=cMLQUZtDszm", "https://m.tb.cn/h.7Suv2nK?tk=cMLQUZtDszm")</f>
+        <v>https://m.tb.cn/h.7Suv2nK?tk=cMLQUZtDszm</v>
       </c>
     </row>
     <row r="130" ht="25.5" customHeight="1">
       <c r="A130">
-        <v>893</v>
+        <v>1811</v>
       </c>
       <c r="B130" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni", "https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni")</f>
-        <v>https://m.tb.cn/h.7T7LuaX?tk=BFiafzRObni</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hgHyUu?tk=Z5YFUZ3m3PW", "https://m.tb.cn/h.7hgHyUu?tk=Z5YFUZ3m3PW")</f>
+        <v>https://m.tb.cn/h.7hgHyUu?tk=Z5YFUZ3m3PW</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
       <c r="A131">
-        <v>894</v>
+        <v>1812</v>
       </c>
       <c r="B131" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl", "https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl")</f>
-        <v>https://m.tb.cn/h.7gPQRPY?tk=ZUhcfzRKszl</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxNqBy?tk=rJIrUZG49i2", "https://m.tb.cn/h.7hxNqBy?tk=rJIrUZG49i2")</f>
+        <v>https://m.tb.cn/h.7hxNqBy?tk=rJIrUZG49i2</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
       <c r="A132">
-        <v>895</v>
+        <v>1813</v>
       </c>
       <c r="B132" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW", "https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW")</f>
-        <v>https://m.tb.cn/h.7g2ClHK?tk=Q19Dfz7hlCW</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxGO6Q?tk=DqHMUZGjbWN", "https://m.tb.cn/h.7hxGO6Q?tk=DqHMUZGjbWN")</f>
+        <v>https://m.tb.cn/h.7hxGO6Q?tk=DqHMUZGjbWN</v>
       </c>
     </row>
     <row r="133" ht="25.5" customHeight="1">
       <c r="A133">
-        <v>896</v>
+        <v>1814</v>
       </c>
       <c r="B133" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE", "https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE")</f>
-        <v>https://m.tb.cn/h.75qlodM?tk=TMC7fz7karE</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SFjNTo?tk=0gQmUZGlB5E", "https://m.tb.cn/h.7SFjNTo?tk=0gQmUZGlB5E")</f>
+        <v>https://m.tb.cn/h.7SFjNTo?tk=0gQmUZGlB5E</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="A134">
-        <v>897</v>
+        <v>1815</v>
       </c>
       <c r="B134" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9", "https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9")</f>
-        <v>https://m.tb.cn/h.7g9naGF?tk=YiSGfz7HjE9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxDI7A?tk=JG9nUZGOeta", "https://m.tb.cn/h.7hxDI7A?tk=JG9nUZGOeta")</f>
+        <v>https://m.tb.cn/h.7hxDI7A?tk=JG9nUZGOeta</v>
       </c>
     </row>
     <row r="135" ht="25.5" customHeight="1">
       <c r="A135">
-        <v>898</v>
+        <v>1816</v>
       </c>
       <c r="B135" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2", "https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2")</f>
-        <v>https://m.tb.cn/h.75qusHI?tk=0CXzfz7G9E2</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hxxYGT?tk=E0NbUZGN021", "https://m.tb.cn/h.7hxxYGT?tk=E0NbUZGN021")</f>
+        <v>https://m.tb.cn/h.7hxxYGT?tk=E0NbUZGN021</v>
       </c>
     </row>
     <row r="136" ht="25.5" customHeight="1">
       <c r="A136">
-        <v>899</v>
+        <v>1817</v>
       </c>
       <c r="B136" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm", "https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm")</f>
-        <v>https://m.tb.cn/h.7g9pOBz?tk=9WVqfz7vFYm</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.76PKl6z?tk=ulhNUZ3Oy7q", "https://m.tb.cn/h.76PKl6z?tk=ulhNUZ3Oy7q")</f>
+        <v>https://m.tb.cn/h.76PKl6z?tk=ulhNUZ3Oy7q</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
       <c r="A137">
-        <v>900</v>
+        <v>1818</v>
       </c>
       <c r="B137" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt", "https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt")</f>
-        <v>https://m.tb.cn/h.75qy2fl?tk=5tF4fz7EGIt</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7Su2pFd?tk=p8AKUZtfTEs", "https://m.tb.cn/h.7Su2pFd?tk=p8AKUZtfTEs")</f>
+        <v>https://m.tb.cn/h.7Su2pFd?tk=p8AKUZtfTEs</v>
       </c>
     </row>
     <row r="138" ht="25.5" customHeight="1">
       <c r="A138">
-        <v>901</v>
+        <v>1819</v>
       </c>
       <c r="B138" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N", "https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N")</f>
-        <v>https://m.tb.cn/h.7g9tZTB?tk=JIvIfziaM5N</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hNZDvP?tk=TQvJUZtUqDi", "https://m.tb.cn/h.7hNZDvP?tk=TQvJUZtUqDi")</f>
+        <v>https://m.tb.cn/h.7hNZDvP?tk=TQvJUZtUqDi</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
       <c r="A139">
-        <v>902</v>
+        <v>1820</v>
       </c>
       <c r="B139" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB", "https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB")</f>
-        <v>https://m.tb.cn/h.75Jkr0w?tk=8bsMfzijqwB</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hcsgdO?tk=FHBaUZt6act", "https://m.tb.cn/h.7hcsgdO?tk=FHBaUZt6act")</f>
+        <v>https://m.tb.cn/h.7hcsgdO?tk=FHBaUZt6act</v>
       </c>
     </row>
     <row r="140" ht="25.5" customHeight="1">
       <c r="A140">
-        <v>903</v>
+        <v>1821</v>
       </c>
       <c r="B140" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9", "https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9")</f>
-        <v>https://m.tb.cn/h.75pOU2s?tk=8YzFfzhkEa9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hDssFT?tk=HyhpUZt7WEW", "https://m.tb.cn/h.7hDssFT?tk=HyhpUZt7WEW")</f>
+        <v>https://m.tb.cn/h.7hDssFT?tk=HyhpUZt7WEW</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
       <c r="A141">
-        <v>904</v>
+        <v>1822</v>
       </c>
       <c r="B141" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp", "https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp")</f>
-        <v>https://m.tb.cn/h.7gX3cG0?tk=WSDjfzhpuUp</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SuiHCq?tk=gp6VUZtPi1B", "https://m.tb.cn/h.7SuiHCq?tk=gp6VUZtPi1B")</f>
+        <v>https://m.tb.cn/h.7SuiHCq?tk=gp6VUZtPi1B</v>
       </c>
     </row>
     <row r="142" ht="25.5" customHeight="1">
       <c r="A142">
-        <v>905</v>
+        <v>1823</v>
       </c>
       <c r="B142" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ", "https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ")</f>
-        <v>https://m.tb.cn/h.7TToQEt?tk=77GcfzhKpbZ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hXa43N?tk=notyUZtmqet", "https://m.tb.cn/h.7hXa43N?tk=notyUZtmqet")</f>
+        <v>https://m.tb.cn/h.7hXa43N?tk=notyUZtmqet</v>
       </c>
     </row>
     <row r="143" ht="25.5" customHeight="1">
       <c r="A143">
-        <v>906</v>
+        <v>1824</v>
       </c>
       <c r="B143" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK", "https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK")</f>
-        <v>https://m.tb.cn/h.75Kpv1y?tk=DOoGfzSL5sK</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hX3uP4?tk=VHo6UZtsgPy", "https://m.tb.cn/h.7hX3uP4?tk=VHo6UZtsgPy")</f>
+        <v>https://m.tb.cn/h.7hX3uP4?tk=VHo6UZtsgPy</v>
       </c>
     </row>
     <row r="144" ht="25.5" customHeight="1">
       <c r="A144">
-        <v>907</v>
+        <v>1825</v>
       </c>
       <c r="B144" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG", "https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG")</f>
-        <v>https://m.tb.cn/h.7g2eLKD?tk=Ri9CfzSLcBG</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SuqdRo?tk=qG9xUZttPIK", "https://m.tb.cn/h.7SuqdRo?tk=qG9xUZttPIK")</f>
+        <v>https://m.tb.cn/h.7SuqdRo?tk=qG9xUZttPIK</v>
       </c>
     </row>
     <row r="145" ht="25.5" customHeight="1">
       <c r="A145">
-        <v>908</v>
+        <v>1826</v>
       </c>
       <c r="B145" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne", "https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne")</f>
-        <v>https://m.tb.cn/h.75KJHUP?tk=p5eDfzSLKne</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hx2f7z?tk=y0kQUZtsEqM", "https://m.tb.cn/h.7hx2f7z?tk=y0kQUZtsEqM")</f>
+        <v>https://m.tb.cn/h.7hx2f7z?tk=y0kQUZtsEqM</v>
       </c>
     </row>
     <row r="146" ht="25.5" customHeight="1">
       <c r="A146">
-        <v>909</v>
+        <v>1827</v>
       </c>
       <c r="B146" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM", "https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM")</f>
-        <v>https://m.tb.cn/h.75KJ8Me?tk=7hlrfzSpukM</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SuJDw9?tk=7rYOUZtt1nh", "https://m.tb.cn/h.7SuJDw9?tk=7rYOUZtt1nh")</f>
+        <v>https://m.tb.cn/h.7SuJDw9?tk=7rYOUZtt1nh</v>
       </c>
     </row>
     <row r="147" ht="25.5" customHeight="1">
       <c r="A147">
-        <v>910</v>
+        <v>1828</v>
       </c>
       <c r="B147" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI", "https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI")</f>
-        <v>https://m.tb.cn/h.7gQQSDe?tk=QBHmfzSp5vI</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SurRMX?tk=CUbSUZtt51B", "https://m.tb.cn/h.7SurRMX?tk=CUbSUZtt51B")</f>
+        <v>https://m.tb.cn/h.7SurRMX?tk=CUbSUZtt51B</v>
       </c>
     </row>
     <row r="148" ht="25.5" customHeight="1">
       <c r="A148">
-        <v>911</v>
+        <v>1829</v>
       </c>
       <c r="B148" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p", "https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p")</f>
-        <v>https://m.tb.cn/h.75qRpzh?tk=PWOifz7hH9p</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hNqfBL?tk=LiIwUZtx8s1", "https://m.tb.cn/h.7hNqfBL?tk=LiIwUZtx8s1")</f>
+        <v>https://m.tb.cn/h.7hNqfBL?tk=LiIwUZtx8s1</v>
       </c>
     </row>
     <row r="149" ht="25.5" customHeight="1">
       <c r="A149">
-        <v>912</v>
+        <v>1830</v>
       </c>
       <c r="B149" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN", "https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN")</f>
-        <v>https://m.tb.cn/h.7TgztVg?tk=eDctfzhY0EN</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hOmMdE?tk=jvKzUZsHlzP", "https://m.tb.cn/h.7hOmMdE?tk=jvKzUZsHlzP")</f>
+        <v>https://m.tb.cn/h.7hOmMdE?tk=jvKzUZsHlzP</v>
       </c>
     </row>
     <row r="150" ht="25.5" customHeight="1">
       <c r="A150">
-        <v>913</v>
+        <v>1831</v>
       </c>
       <c r="B150" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa", "https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa")</f>
-        <v>https://m.tb.cn/h.7TTTvUj?tk=JkZIfzhSCAa</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7StsuH2?tk=R4QgUZswpCj", "https://m.tb.cn/h.7StsuH2?tk=R4QgUZswpCj")</f>
+        <v>https://m.tb.cn/h.7StsuH2?tk=R4QgUZswpCj</v>
       </c>
     </row>
     <row r="151" ht="25.5" customHeight="1">
       <c r="A151">
-        <v>914</v>
+        <v>1832</v>
       </c>
       <c r="B151" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz", "https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz")</f>
-        <v>https://m.tb.cn/h.7gYRa82?tk=yiMgfzgwxyz</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7StHR2O?tk=MpdBUZsDk2q", "https://m.tb.cn/h.7StHR2O?tk=MpdBUZsDk2q")</f>
+        <v>https://m.tb.cn/h.7StHR2O?tk=MpdBUZsDk2q</v>
       </c>
     </row>
     <row r="152" ht="25.5" customHeight="1">
       <c r="A152">
-        <v>915</v>
+        <v>1833</v>
       </c>
       <c r="B152" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu", "https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu")</f>
-        <v>https://m.tb.cn/h.75MwB3T?tk=XmEUfzgyhCu</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SGNWOj?tk=rjzIUZHKYlR", "https://m.tb.cn/h.7SGNWOj?tk=rjzIUZHKYlR")</f>
+        <v>https://m.tb.cn/h.7SGNWOj?tk=rjzIUZHKYlR</v>
       </c>
     </row>
     <row r="153" ht="25.5" customHeight="1">
       <c r="A153">
-        <v>916</v>
+        <v>1834</v>
       </c>
       <c r="B153" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9", "https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9")</f>
-        <v>https://m.tb.cn/h.7gYJgJM?tk=kfRcfzTWNA9</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hDVlPj?tk=DDIlUZHD7kM", "https://m.tb.cn/h.7hDVlPj?tk=DDIlUZHD7kM")</f>
+        <v>https://m.tb.cn/h.7hDVlPj?tk=DDIlUZHD7kM</v>
       </c>
     </row>
     <row r="154" ht="25.5" customHeight="1">
       <c r="A154">
-        <v>917</v>
+        <v>1835</v>
       </c>
       <c r="B154" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo", "https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo")</f>
-        <v>https://m.tb.cn/h.7gRYRgg?tk=q1cOfzTVsQo</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hc7weP?tk=GFjRUZHyXuY", "https://m.tb.cn/h.7hc7weP?tk=GFjRUZHyXuY")</f>
+        <v>https://m.tb.cn/h.7hc7weP?tk=GFjRUZHyXuY</v>
       </c>
     </row>
     <row r="155" ht="25.5" customHeight="1">
       <c r="A155">
-        <v>918</v>
+        <v>1836</v>
       </c>
       <c r="B155" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK", "https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK")</f>
-        <v>https://m.tb.cn/h.7gRX1CB?tk=EXeSfzT52nK</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hmDKtn?tk=dVuDUZtXbLq", "https://m.tb.cn/h.7hmDKtn?tk=dVuDUZtXbLq")</f>
+        <v>https://m.tb.cn/h.7hmDKtn?tk=dVuDUZtXbLq</v>
       </c>
     </row>
     <row r="156" ht="25.5" customHeight="1">
       <c r="A156">
-        <v>919</v>
+        <v>1837</v>
       </c>
       <c r="B156" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU", "https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU")</f>
-        <v>https://m.tb.cn/h.75oluJm?tk=AuL7fzTmluU</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7StbckX?tk=P86VUZsVvud", "https://m.tb.cn/h.7StbckX?tk=P86VUZsVvud")</f>
+        <v>https://m.tb.cn/h.7StbckX?tk=P86VUZsVvud</v>
       </c>
     </row>
     <row r="157" ht="25.5" customHeight="1">
       <c r="A157">
-        <v>920</v>
+        <v>1838</v>
       </c>
       <c r="B157" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou", "https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou")</f>
-        <v>https://m.tb.cn/h.7g1TGv9?tk=bnkAfzTsIou</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hO1TZR?tk=anvUUZs5qlk", "https://m.tb.cn/h.7hO1TZR?tk=anvUUZs5qlk")</f>
+        <v>https://m.tb.cn/h.7hO1TZR?tk=anvUUZs5qlk</v>
       </c>
     </row>
     <row r="158" ht="25.5" customHeight="1">
       <c r="A158">
-        <v>921</v>
+        <v>1839</v>
       </c>
       <c r="B158" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe", "https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe")</f>
-        <v>https://m.tb.cn/h.7T5Jusf?tk=GYBJfzTtwEe</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hEGu8P?tk=B5aFUZs8yrO", "https://m.tb.cn/h.7hEGu8P?tk=B5aFUZs8yrO")</f>
+        <v>https://m.tb.cn/h.7hEGu8P?tk=B5aFUZs8yrO</v>
       </c>
     </row>
     <row r="159" ht="25.5" customHeight="1">
       <c r="A159">
-        <v>922</v>
+        <v>1840</v>
       </c>
       <c r="B159" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8", "https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8")</f>
-        <v>https://m.tb.cn/h.7gRlHgu?tk=IVmnfzTrxx8</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hEAsXp?tk=KgGpUZspFTZ", "https://m.tb.cn/h.7hEAsXp?tk=KgGpUZspFTZ")</f>
+        <v>https://m.tb.cn/h.7hEAsXp?tk=KgGpUZspFTZ</v>
       </c>
     </row>
     <row r="160" ht="25.5" customHeight="1">
       <c r="A160">
-        <v>923</v>
+        <v>1841</v>
       </c>
       <c r="B160" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY", "https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY")</f>
-        <v>https://m.tb.cn/h.7gbOwLg?tk=9Ahgfzg0hzY</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hw0Wjq?tk=HH7TUZsqNHu", "https://m.tb.cn/h.7hw0Wjq?tk=HH7TUZsqNHu")</f>
+        <v>https://m.tb.cn/h.7hw0Wjq?tk=HH7TUZsqNHu</v>
       </c>
     </row>
     <row r="161" ht="25.5" customHeight="1">
       <c r="A161">
-        <v>924</v>
+        <v>1842</v>
       </c>
       <c r="B161" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM", "https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM")</f>
-        <v>https://m.tb.cn/h.7gi6WYX?tk=WLd4fzgkLNM</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h1eem1?tk=BnZDUZsIq5Y", "https://m.tb.cn/h.7h1eem1?tk=BnZDUZsIq5Y")</f>
+        <v>https://m.tb.cn/h.7h1eem1?tk=BnZDUZsIq5Y</v>
       </c>
     </row>
     <row r="162" ht="25.5" customHeight="1">
       <c r="A162">
-        <v>925</v>
+        <v>1843</v>
       </c>
       <c r="B162" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ", "https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ")</f>
-        <v>https://m.tb.cn/h.75M9o3d?tk=h8Ehfzg9wuJ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hP4Cxk?tk=oezzUZrPK0D", "https://m.tb.cn/h.7hP4Cxk?tk=oezzUZrPK0D")</f>
+        <v>https://m.tb.cn/h.7hP4Cxk?tk=oezzUZrPK0D</v>
       </c>
     </row>
     <row r="163" ht="25.5" customHeight="1">
       <c r="A163">
-        <v>926</v>
+        <v>1844</v>
       </c>
       <c r="B163" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D", "https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D")</f>
-        <v>https://m.tb.cn/h.7TUQcPC?tk=6UmGfzgmR2D</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hbd4Ub?tk=oNe5UZrrK6a", "https://m.tb.cn/h.7hbd4Ub?tk=oNe5UZrrK6a")</f>
+        <v>https://m.tb.cn/h.7hbd4Ub?tk=oNe5UZrrK6a</v>
       </c>
     </row>
     <row r="164" ht="25.5" customHeight="1">
       <c r="A164">
-        <v>927</v>
+        <v>1845</v>
       </c>
       <c r="B164" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG", "https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG")</f>
-        <v>https://m.tb.cn/h.7giRSp8?tk=211sfzgMQpG</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hPQvBd?tk=zP5ZUZrsbPx", "https://m.tb.cn/h.7hPQvBd?tk=zP5ZUZrsbPx")</f>
+        <v>https://m.tb.cn/h.7hPQvBd?tk=zP5ZUZrsbPx</v>
       </c>
     </row>
     <row r="165" ht="25.5" customHeight="1">
       <c r="A165">
-        <v>928</v>
+        <v>1846</v>
       </c>
       <c r="B165" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w", "https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w")</f>
-        <v>https://m.tb.cn/h.75MH9CA?tk=zmyffzgtM8w</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hPQ3Gx?tk=FmnJUZrIa43", "https://m.tb.cn/h.7hPQ3Gx?tk=FmnJUZrIa43")</f>
+        <v>https://m.tb.cn/h.7hPQ3Gx?tk=FmnJUZrIa43</v>
       </c>
     </row>
     <row r="166" ht="25.5" customHeight="1">
       <c r="A166">
-        <v>929</v>
+        <v>1847</v>
       </c>
       <c r="B166" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM", "https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM")</f>
-        <v>https://m.tb.cn/h.7TUKQ8P?tk=lr5ifzgH8jM</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SsJa6D?tk=PcHtUZrDi5h", "https://m.tb.cn/h.7SsJa6D?tk=PcHtUZrDi5h")</f>
+        <v>https://m.tb.cn/h.7SsJa6D?tk=PcHtUZrDi5h</v>
       </c>
     </row>
     <row r="167" ht="25.5" customHeight="1">
       <c r="A167">
-        <v>930</v>
+        <v>1848</v>
       </c>
       <c r="B167" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt", "https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt")</f>
-        <v>https://m.tb.cn/h.75MLPPr?tk=aj2vfzgKXlt</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hPp31z?tk=19UtUZrCs9r", "https://m.tb.cn/h.7hPp31z?tk=19UtUZrCs9r")</f>
+        <v>https://m.tb.cn/h.7hPp31z?tk=19UtUZrCs9r</v>
       </c>
     </row>
     <row r="168" ht="25.5" customHeight="1">
       <c r="A168">
-        <v>931</v>
+        <v>1849</v>
       </c>
       <c r="B168" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ", "https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ")</f>
-        <v>https://m.tb.cn/h.7giMOGl?tk=tvKzfzgtnOZ</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SHWeGh?tk=RoGYUZI6OQh", "https://m.tb.cn/h.7SHWeGh?tk=RoGYUZI6OQh")</f>
+        <v>https://m.tb.cn/h.7SHWeGh?tk=RoGYUZI6OQh</v>
       </c>
     </row>
     <row r="169" ht="25.5" customHeight="1">
       <c r="A169">
-        <v>932</v>
+        <v>1850</v>
       </c>
       <c r="B169" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c", "https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c")</f>
-        <v>https://m.tb.cn/h.75NwF5R?tk=yojwfzUw85c</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hYZMyx?tk=tRQkUZINWga", "https://m.tb.cn/h.7hYZMyx?tk=tRQkUZINWga")</f>
+        <v>https://m.tb.cn/h.7hYZMyx?tk=tRQkUZINWga</v>
       </c>
     </row>
     <row r="170" ht="25.5" customHeight="1">
       <c r="A170">
-        <v>933</v>
+        <v>1851</v>
       </c>
       <c r="B170" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6", "https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6")</f>
-        <v>https://m.tb.cn/h.7gSCLkD?tk=kZgnfz51Jb6</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.76mYPYp?tk=8feZfAmMCLm", "https://m.tb.cn/h.76mYPYp?tk=8feZfAmMCLm")</f>
+        <v>https://m.tb.cn/h.76mYPYp?tk=8feZfAmMCLm</v>
       </c>
     </row>
     <row r="171" ht="25.5" customHeight="1">
       <c r="A171">
-        <v>934</v>
+        <v>1852</v>
       </c>
       <c r="B171" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh", "https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh")</f>
-        <v>https://m.tb.cn/h.7g0I5ij?tk=zpyUfz55IFh</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hE06bI?tk=RWetUZIpG9E", "https://m.tb.cn/h.7hE06bI?tk=RWetUZIpG9E")</f>
+        <v>https://m.tb.cn/h.7hE06bI?tk=RWetUZIpG9E</v>
       </c>
     </row>
     <row r="172" ht="25.5" customHeight="1">
       <c r="A172">
-        <v>935</v>
+        <v>1853</v>
       </c>
       <c r="B172" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb", "https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb")</f>
-        <v>https://m.tb.cn/h.7g0stMD?tk=N4c0fz5gwbb</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hlQ7aX?tk=j3hRUZIIi55", "https://m.tb.cn/h.7hlQ7aX?tk=j3hRUZIIi55")</f>
+        <v>https://m.tb.cn/h.7hlQ7aX?tk=j3hRUZIIi55</v>
       </c>
     </row>
     <row r="173" ht="25.5" customHeight="1">
       <c r="A173">
-        <v>936</v>
+        <v>1854</v>
       </c>
       <c r="B173" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz", "https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz")</f>
-        <v>https://m.tb.cn/h.7g7cmJv?tk=8BTVfz5geQz</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h0YyN6?tk=RAYjUZJqpCY", "https://m.tb.cn/h.7h0YyN6?tk=RAYjUZJqpCY")</f>
+        <v>https://m.tb.cn/h.7h0YyN6?tk=RAYjUZJqpCY</v>
       </c>
     </row>
     <row r="174" ht="25.5" customHeight="1">
       <c r="A174">
-        <v>937</v>
+        <v>1855</v>
       </c>
       <c r="B174" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv", "https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv")</f>
-        <v>https://m.tb.cn/h.7TfgUov?tk=fU4Bfz5i6iv</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hkNVFd?tk=Gu1UUZJuk83", "https://m.tb.cn/h.7hkNVFd?tk=Gu1UUZJuk83")</f>
+        <v>https://m.tb.cn/h.7hkNVFd?tk=Gu1UUZJuk83</v>
       </c>
     </row>
     <row r="175" ht="25.5" customHeight="1">
       <c r="A175">
-        <v>938</v>
+        <v>1856</v>
       </c>
       <c r="B175" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw", "https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw")</f>
-        <v>https://m.tb.cn/h.7Tf6JkL?tk=rUhZfz5jKSw</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hkJMjf?tk=6XNmUZJy9Io", "https://m.tb.cn/h.7hkJMjf?tk=6XNmUZJy9Io")</f>
+        <v>https://m.tb.cn/h.7hkJMjf?tk=6XNmUZJy9Io</v>
       </c>
     </row>
     <row r="176" ht="25.5" customHeight="1">
       <c r="A176">
-        <v>939</v>
+        <v>1857</v>
       </c>
       <c r="B176" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI", "https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI")</f>
-        <v>https://m.tb.cn/h.7g0mZCf?tk=u07Bfz5c7vI</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h0liWJ?tk=D4zVUZr1mWV", "https://m.tb.cn/h.7h0liWJ?tk=D4zVUZr1mWV")</f>
+        <v>https://m.tb.cn/h.7h0liWJ?tk=D4zVUZr1mWV</v>
       </c>
     </row>
     <row r="177" ht="25.5" customHeight="1">
       <c r="A177">
-        <v>940</v>
+        <v>1858</v>
       </c>
       <c r="B177" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB", "https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB")</f>
-        <v>https://m.tb.cn/h.75nIXrT?tk=o1kkfz5IxHB</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SIyZhZ?tk=5aSCUZrdDxY", "https://m.tb.cn/h.7SIyZhZ?tk=5aSCUZrdDxY")</f>
+        <v>https://m.tb.cn/h.7SIyZhZ?tk=5aSCUZrdDxY</v>
       </c>
     </row>
     <row r="178" ht="25.5" customHeight="1">
       <c r="A178">
-        <v>941</v>
+        <v>1859</v>
       </c>
       <c r="B178" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj", "https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj")</f>
-        <v>https://m.tb.cn/h.7Tfv1Js?tk=KlZNfz5yNFj</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hFKiWA?tk=lYIfUZrUJoz", "https://m.tb.cn/h.7hFKiWA?tk=lYIfUZrUJoz")</f>
+        <v>https://m.tb.cn/h.7hFKiWA?tk=lYIfUZrUJoz</v>
       </c>
     </row>
     <row r="179" ht="25.5" customHeight="1">
       <c r="A179">
-        <v>942</v>
+        <v>1860</v>
       </c>
       <c r="B179" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN", "https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN")</f>
-        <v>https://m.tb.cn/h.7gZn5Qj?tk=Y66LfzUbhQN</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hZTlyl?tk=cICWUZqCJvA", "https://m.tb.cn/h.7hZTlyl?tk=cICWUZqCJvA")</f>
+        <v>https://m.tb.cn/h.7hZTlyl?tk=cICWUZqCJvA</v>
       </c>
     </row>
     <row r="180" ht="25.5" customHeight="1">
       <c r="A180">
-        <v>943</v>
+        <v>1861</v>
       </c>
       <c r="B180" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY", "https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY")</f>
-        <v>https://m.tb.cn/h.75N219j?tk=N7aofzUdmAY</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hZ6MC8?tk=f95TUZqyjvG", "https://m.tb.cn/h.7hZ6MC8?tk=f95TUZqyjvG")</f>
+        <v>https://m.tb.cn/h.7hZ6MC8?tk=f95TUZqyjvG</v>
       </c>
     </row>
     <row r="181" ht="25.5" customHeight="1">
       <c r="A181">
-        <v>944</v>
+        <v>1862</v>
       </c>
       <c r="B181" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy", "https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy")</f>
-        <v>https://m.tb.cn/h.7TVHjgD?tk=t3YCfzfFgEy</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7h9DMQF?tk=GWFXUZJ2mUY", "https://m.tb.cn/h.7h9DMQF?tk=GWFXUZJ2mUY")</f>
+        <v>https://m.tb.cn/h.7h9DMQF?tk=GWFXUZJ2mUY</v>
       </c>
     </row>
     <row r="182" ht="25.5" customHeight="1">
       <c r="A182">
-        <v>945</v>
+        <v>1863</v>
       </c>
       <c r="B182" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq", "https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq")</f>
-        <v>https://m.tb.cn/h.7gZvIJ7?tk=Lvf7fzUSOMq</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hQfDoK?tk=FTyeUZqHBt5", "https://m.tb.cn/h.7hQfDoK?tk=FTyeUZqHBt5")</f>
+        <v>https://m.tb.cn/h.7hQfDoK?tk=FTyeUZqHBt5</v>
       </c>
     </row>
     <row r="183" ht="25.5" customHeight="1">
       <c r="A183">
-        <v>946</v>
+        <v>1864</v>
       </c>
       <c r="B183" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD", "https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD")</f>
-        <v>https://m.tb.cn/h.75NPCeN?tk=fy3hfzUOBhD</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7huK2KP?tk=bQc2UZJUEHZ", "https://m.tb.cn/h.7huK2KP?tk=bQc2UZJUEHZ")</f>
+        <v>https://m.tb.cn/h.7huK2KP?tk=bQc2UZJUEHZ</v>
       </c>
     </row>
     <row r="184" ht="25.5" customHeight="1">
       <c r="A184">
-        <v>947</v>
+        <v>1865</v>
       </c>
       <c r="B184" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE", "https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE")</f>
-        <v>https://m.tb.cn/h.7g0Yitf?tk=53zdfzUnYYE</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hZSLXg?tk=AkA8UZqAbDn", "https://m.tb.cn/h.7hZSLXg?tk=AkA8UZqAbDn")</f>
+        <v>https://m.tb.cn/h.7hZSLXg?tk=AkA8UZqAbDn</v>
       </c>
     </row>
     <row r="185" ht="25.5" customHeight="1">
       <c r="A185">
-        <v>948</v>
+        <v>1866</v>
       </c>
       <c r="B185" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf", "https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf")</f>
-        <v>https://m.tb.cn/h.7T4PqRv?tk=tUswfzUMyOf</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SmJksM?tk=ZomsUZOg9tc", "https://m.tb.cn/h.7SmJksM?tk=ZomsUZOg9tc")</f>
+        <v>https://m.tb.cn/h.7SmJksM?tk=ZomsUZOg9tc</v>
       </c>
     </row>
     <row r="186" ht="25.5" customHeight="1">
       <c r="A186">
-        <v>949</v>
+        <v>1867</v>
       </c>
       <c r="B186" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD", "https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD")</f>
-        <v>https://m.tb.cn/h.7g02Hlv?tk=zEqwfzUqloD</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7SI5VH4?tk=US7pUZJPBuS", "https://m.tb.cn/h.7SI5VH4?tk=US7pUZJPBuS")</f>
+        <v>https://m.tb.cn/h.7SI5VH4?tk=US7pUZJPBuS</v>
       </c>
     </row>
     <row r="187" ht="25.5" customHeight="1">
       <c r="A187">
-        <v>950</v>
+        <v>1868</v>
       </c>
       <c r="B187" s="2" t="str">
-        <f>=HYPERLINK("https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL", "https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL")</f>
-        <v>https://m.tb.cn/h.7T4L4Tt?tk=zbsafzUrfBL</v>
+        <f>=HYPERLINK("https://m.tb.cn/h.7hZz9jf?tk=lCfRUZJNVp1", "https://m.tb.cn/h.7hZz9jf?tk=lCfRUZJNVp1")</f>
+        <v>https://m.tb.cn/h.7hZz9jf?tk=lCfRUZJNVp1</v>
+      </c>
+    </row>
+    <row r="188" ht="25.5" customHeight="1">
+      <c r="A188">
+        <v>1869</v>
+      </c>
+      <c r="B188" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hQLV4t?tk=1VZzUZKEE4B", "https://m.tb.cn/h.7hQLV4t?tk=1VZzUZKEE4B")</f>
+        <v>https://m.tb.cn/h.7hQLV4t?tk=1VZzUZKEE4B</v>
+      </c>
+    </row>
+    <row r="189" ht="25.5" customHeight="1">
+      <c r="A189">
+        <v>1870</v>
+      </c>
+      <c r="B189" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hQpbXe?tk=1mPfUZKxaZL", "https://m.tb.cn/h.7hQpbXe?tk=1mPfUZKxaZL")</f>
+        <v>https://m.tb.cn/h.7hQpbXe?tk=1mPfUZKxaZL</v>
+      </c>
+    </row>
+    <row r="190" ht="25.5" customHeight="1">
+      <c r="A190">
+        <v>1871</v>
+      </c>
+      <c r="B190" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7haT15E?tk=Ss2dUZKy4Ru", "https://m.tb.cn/h.7haT15E?tk=Ss2dUZKy4Ru")</f>
+        <v>https://m.tb.cn/h.7haT15E?tk=Ss2dUZKy4Ru</v>
+      </c>
+    </row>
+    <row r="191" ht="25.5" customHeight="1">
+      <c r="A191">
+        <v>1872</v>
+      </c>
+      <c r="B191" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7SJsd8C?tk=mmYDUZKBqCX", "https://m.tb.cn/h.7SJsd8C?tk=mmYDUZKBqCX")</f>
+        <v>https://m.tb.cn/h.7SJsd8C?tk=mmYDUZKBqCX</v>
+      </c>
+    </row>
+    <row r="192" ht="25.5" customHeight="1">
+      <c r="A192">
+        <v>1873</v>
+      </c>
+      <c r="B192" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hgG503?tk=A5IUUZ3OfxQ", "https://m.tb.cn/h.7hgG503?tk=A5IUUZ3OfxQ")</f>
+        <v>https://m.tb.cn/h.7hgG503?tk=A5IUUZ3OfxQ</v>
+      </c>
+    </row>
+    <row r="193" ht="25.5" customHeight="1">
+      <c r="A193">
+        <v>1874</v>
+      </c>
+      <c r="B193" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hGkJOh?tk=Oqn0UZqX1kP", "https://m.tb.cn/h.7hGkJOh?tk=Oqn0UZqX1kP")</f>
+        <v>https://m.tb.cn/h.7hGkJOh?tk=Oqn0UZqX1kP</v>
+      </c>
+    </row>
+    <row r="194" ht="25.5" customHeight="1">
+      <c r="A194">
+        <v>1875</v>
+      </c>
+      <c r="B194" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7h9c6BM?tk=NcCOUZq79S4", "https://m.tb.cn/h.7h9c6BM?tk=NcCOUZq79S4")</f>
+        <v>https://m.tb.cn/h.7h9c6BM?tk=NcCOUZq79S4</v>
+      </c>
+    </row>
+    <row r="195" ht="25.5" customHeight="1">
+      <c r="A195">
+        <v>1876</v>
+      </c>
+      <c r="B195" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hLAqPy?tk=JhrLUZln3Dj", "https://m.tb.cn/h.7hLAqPy?tk=JhrLUZln3Dj")</f>
+        <v>https://m.tb.cn/h.7hLAqPy?tk=JhrLUZln3Dj</v>
+      </c>
+    </row>
+    <row r="196" ht="25.5" customHeight="1">
+      <c r="A196">
+        <v>1877</v>
+      </c>
+      <c r="B196" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.76Upjhm?tk=FDxQUak99X6", "https://m.tb.cn/h.76Upjhm?tk=FDxQUak99X6")</f>
+        <v>https://m.tb.cn/h.76Upjhm?tk=FDxQUak99X6</v>
+      </c>
+    </row>
+    <row r="197" ht="25.5" customHeight="1">
+      <c r="A197">
+        <v>1878</v>
+      </c>
+      <c r="B197" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7Sr8eSF?tk=8J8QUZqoPUE", "https://m.tb.cn/h.7Sr8eSF?tk=8J8QUZqoPUE")</f>
+        <v>https://m.tb.cn/h.7Sr8eSF?tk=8J8QUZqoPUE</v>
+      </c>
+    </row>
+    <row r="198" ht="25.5" customHeight="1">
+      <c r="A198">
+        <v>1879</v>
+      </c>
+      <c r="B198" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hi3IwH?tk=fNhEU0bPqxp", "https://m.tb.cn/h.7hi3IwH?tk=fNhEU0bPqxp")</f>
+        <v>https://m.tb.cn/h.7hi3IwH?tk=fNhEU0bPqxp</v>
+      </c>
+    </row>
+    <row r="199" ht="25.5" customHeight="1">
+      <c r="A199">
+        <v>1898</v>
+      </c>
+      <c r="B199" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A", "https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A")</f>
+        <v>https://m.tb.cn/h.7SVHiR6?tk=AQ6RU0cdU6A</v>
+      </c>
+    </row>
+    <row r="200" ht="25.5" customHeight="1">
+      <c r="A200">
+        <v>1899</v>
+      </c>
+      <c r="B200" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1", "https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1")</f>
+        <v>https://m.tb.cn/h.772MxrG?tk=uGwSU0cjcx1</v>
+      </c>
+    </row>
+    <row r="201" ht="25.5" customHeight="1">
+      <c r="A201">
+        <v>1900</v>
+      </c>
+      <c r="B201" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.772qS7P?tk=X6UbU0cPhd6", "https://m.tb.cn/h.772qS7P?tk=X6UbU0cPhd6")</f>
+        <v>https://m.tb.cn/h.772qS7P?tk=X6UbU0cPhd6</v>
+      </c>
+    </row>
+    <row r="202" ht="25.5" customHeight="1">
+      <c r="A202">
+        <v>1901</v>
+      </c>
+      <c r="B202" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hjTsmu?tk=NvcDU0cNgRj", "https://m.tb.cn/h.7hjTsmu?tk=NvcDU0cNgRj")</f>
+        <v>https://m.tb.cn/h.7hjTsmu?tk=NvcDU0cNgRj</v>
+      </c>
+    </row>
+    <row r="203" ht="25.5" customHeight="1">
+      <c r="A203">
+        <v>1902</v>
+      </c>
+      <c r="B203" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hDjbPj?tk=ABToU0cMHhd", "https://m.tb.cn/h.7hDjbPj?tk=ABToU0cMHhd")</f>
+        <v>https://m.tb.cn/h.7hDjbPj?tk=ABToU0cMHhd</v>
+      </c>
+    </row>
+    <row r="204" ht="25.5" customHeight="1">
+      <c r="A204">
+        <v>1903</v>
+      </c>
+      <c r="B204" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hD9uim?tk=6ejRU0cnyZz", "https://m.tb.cn/h.7hD9uim?tk=6ejRU0cnyZz")</f>
+        <v>https://m.tb.cn/h.7hD9uim?tk=6ejRU0cnyZz</v>
+      </c>
+    </row>
+    <row r="205" ht="25.5" customHeight="1">
+      <c r="A205">
+        <v>1904</v>
+      </c>
+      <c r="B205" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI", "https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI")</f>
+        <v>https://m.tb.cn/h.7S4fHmf?tk=0GatU0cp2YI</v>
+      </c>
+    </row>
+    <row r="206" ht="25.5" customHeight="1">
+      <c r="A206">
+        <v>1905</v>
+      </c>
+      <c r="B206" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv", "https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv")</f>
+        <v>https://m.tb.cn/h.77dHYJM?tk=Rl86U0Xm9Rv</v>
+      </c>
+    </row>
+    <row r="207" ht="25.5" customHeight="1">
+      <c r="A207">
+        <v>1906</v>
+      </c>
+      <c r="B207" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hCvUVU?tk=lkJVU02AFOI", "https://m.tb.cn/h.7hCvUVU?tk=lkJVU02AFOI")</f>
+        <v>https://m.tb.cn/h.7hCvUVU?tk=lkJVU02AFOI</v>
+      </c>
+    </row>
+    <row r="208" ht="25.5" customHeight="1">
+      <c r="A208">
+        <v>1907</v>
+      </c>
+      <c r="B208" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hCwaBD?tk=2i4tU0da9SQ", "https://m.tb.cn/h.7hCwaBD?tk=2i4tU0da9SQ")</f>
+        <v>https://m.tb.cn/h.7hCwaBD?tk=2i4tU0da9SQ</v>
+      </c>
+    </row>
+    <row r="209" ht="25.5" customHeight="1">
+      <c r="A209">
+        <v>1908</v>
+      </c>
+      <c r="B209" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH", "https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH")</f>
+        <v>https://m.tb.cn/h.7Tz0g1Z?tk=rllRfAERIDH</v>
+      </c>
+    </row>
+    <row r="210" ht="25.5" customHeight="1">
+      <c r="A210">
+        <v>1909</v>
+      </c>
+      <c r="B210" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7SUKIiT?tk=9vcJU0dYSz7", "https://m.tb.cn/h.7SUKIiT?tk=9vcJU0dYSz7")</f>
+        <v>https://m.tb.cn/h.7SUKIiT?tk=9vcJU0dYSz7</v>
+      </c>
+    </row>
+    <row r="211" ht="25.5" customHeight="1">
+      <c r="A211">
+        <v>1910</v>
+      </c>
+      <c r="B211" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hyaf5H?tk=HdMMU0ddRLk", "https://m.tb.cn/h.7hyaf5H?tk=HdMMU0ddRLk")</f>
+        <v>https://m.tb.cn/h.7hyaf5H?tk=HdMMU0ddRLk</v>
+      </c>
+    </row>
+    <row r="212" ht="25.5" customHeight="1">
+      <c r="A212">
+        <v>1911</v>
+      </c>
+      <c r="B212" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H", "https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H")</f>
+        <v>https://m.tb.cn/h.7hyXXlL?tk=ItYbU0dUz5H</v>
+      </c>
+    </row>
+    <row r="213" ht="25.5" customHeight="1">
+      <c r="A213">
+        <v>1912</v>
+      </c>
+      <c r="B213" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hyov5h?tk=5WKvU0dHnL1", "https://m.tb.cn/h.7hyov5h?tk=5WKvU0dHnL1")</f>
+        <v>https://m.tb.cn/h.7hyov5h?tk=5WKvU0dHnL1</v>
+      </c>
+    </row>
+    <row r="214" ht="25.5" customHeight="1">
+      <c r="A214">
+        <v>1913</v>
+      </c>
+      <c r="B214" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hk9wek?tk=Ijw5U0dHSNJ", "https://m.tb.cn/h.7hk9wek?tk=Ijw5U0dHSNJ")</f>
+        <v>https://m.tb.cn/h.7hk9wek?tk=Ijw5U0dHSNJ</v>
+      </c>
+    </row>
+    <row r="215" ht="25.5" customHeight="1">
+      <c r="A215">
+        <v>1914</v>
+      </c>
+      <c r="B215" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7hkNNUO?tk=OjmuU0dFlpC", "https://m.tb.cn/h.7hkNNUO?tk=OjmuU0dFlpC")</f>
+        <v>https://m.tb.cn/h.7hkNNUO?tk=OjmuU0dFlpC</v>
+      </c>
+    </row>
+    <row r="216" ht="25.5" customHeight="1">
+      <c r="A216">
+        <v>1915</v>
+      </c>
+      <c r="B216" s="2" t="str">
+        <f>=HYPERLINK("https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6", "https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6")</f>
+        <v>https://m.tb.cn/h.7h7807Z?tk=tV1NUZU1uF6</v>
       </c>
     </row>
   </sheetData>
